--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\UnitConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04D1C5-AFEE-43C8-9CF7-D51FCDA76901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3030F14D-2A2A-4E5D-A506-3635947AE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -163,14 +163,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ResUnit_1</t>
-  </si>
-  <si>
-    <t>ResUnit_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string#ref=ResUnitCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Player1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Monster1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +588,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -674,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -767,12 +776,12 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>Unit_1</v>
+        <v>Unit_Player1</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -780,20 +789,20 @@
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>Unit_2</v>
+        <v>Unit_Monster1</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>18</v>
@@ -802,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3030F14D-2A2A-4E5D-A506-3635947AE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5404A-750F-49FA-9E6C-29C2C44733A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,242 @@
   </si>
   <si>
     <t>ResUnit_Monster1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_SceneEffectNone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneEffectNone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景特效空对象(不要删除这条记录)</t>
+  </si>
+  <si>
+    <t>场景特效空对象(不要删除这条记录)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_HeadQuarter1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadQuarter1</t>
+  </si>
+  <si>
+    <t>大本营1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_MachineGunTower_0</t>
+  </si>
+  <si>
+    <t>MachineGunTower_0</t>
+  </si>
+  <si>
+    <t>ResUnit_EnergyPylon_2</t>
+  </si>
+  <si>
+    <t>ResUnit_LaserTower_0</t>
+  </si>
+  <si>
+    <t>ResUnit_RocketTower_1</t>
+  </si>
+  <si>
+    <t>RocketTower_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserTower_0</t>
+  </si>
+  <si>
+    <t>EnergyPylon_2</t>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ResIconCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon资源路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resScale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源大小缩放</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Player1</t>
+  </si>
+  <si>
+    <t>ResIcon_HeadQuarter1</t>
+  </si>
+  <si>
+    <t>ResIcon_MachineGunTower_0</t>
+  </si>
+  <si>
+    <t>ResIcon_EnergyPylon_2</t>
+  </si>
+  <si>
+    <t>ResIcon_LaserTower_0</t>
+  </si>
+  <si>
+    <t>ResIcon_RocketTower_1</t>
+  </si>
+  <si>
+    <t>ResIcon_Monster1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_NULL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克2</t>
+  </si>
+  <si>
+    <t>坦克3</t>
+  </si>
+  <si>
+    <t>坦克4</t>
+  </si>
+  <si>
+    <t>Hovercopter</t>
+  </si>
+  <si>
+    <t>Hovertank</t>
+  </si>
+  <si>
+    <t>Hoverbuggy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoverboss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResIcon_Hoverboss</t>
+  </si>
+  <si>
+    <t>ResIcon_Hoverbuggy</t>
+  </si>
+  <si>
+    <t>ResIcon_Hovercopter</t>
+  </si>
+  <si>
+    <t>ResIcon_Hovertank</t>
+  </si>
+  <si>
+    <t>ResUnit_Hoverboss</t>
+  </si>
+  <si>
+    <t>ResUnit_Hoverbuggy</t>
+  </si>
+  <si>
+    <t>ResUnit_Hovercopter</t>
+  </si>
+  <si>
+    <t>ResUnit_Hovertank</t>
+  </si>
+  <si>
+    <t>skillList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有技能列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_MachineGunTower1</t>
+  </si>
+  <si>
+    <t>Skill_RocketTower_1</t>
+  </si>
+  <si>
+    <t>Skill_LaserTower_0</t>
+  </si>
+  <si>
+    <t>Skill_HoverTankNormal1</t>
+  </si>
+  <si>
+    <t>Skill_MachineGunTower1;Skill_RocketTower_1;Skill_LaserTower_0;Skill_EnergyPylon_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=SkillCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_EnergyPylon_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathShow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathShow_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_DeathShowCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_HoverTankNormal1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyRadius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体半径(判断伤害什么的)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转身速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationSpeed</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -585,23 +821,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="6" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="14" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -617,15 +853,29 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
+      <c r="M1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -637,8 +887,14 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,13 +904,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -666,8 +922,14 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -683,15 +945,29 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="M3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -703,8 +979,14 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -716,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -734,8 +1016,14 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -751,15 +1039,29 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="M5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -771,8 +1073,14 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -780,7 +1088,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
         <v>Unit_Player1</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -790,10 +1098,29 @@
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6">
+        <v>200</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -801,7 +1128,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>Unit_Monster1</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -811,12 +1138,431 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="6">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>200</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit_SceneEffectNone</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <v>200</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit_HeadQuarter1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6">
+        <v>200</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit_MachineGunTower_0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6</v>
+      </c>
+      <c r="I10" s="6">
+        <v>200</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D12" si="1">B11&amp;"_"&amp;C11</f>
+        <v>Unit_EnergyPylon_2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="6">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6">
+        <v>200</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_LaserTower_0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6">
+        <v>200</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13" si="2">B13&amp;"_"&amp;C13</f>
+        <v>Unit_RocketTower_1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="6">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6">
+        <v>200</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit_Hoverboss</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>200</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D17" si="3">B15&amp;"_"&amp;C15</f>
+        <v>Unit_Hoverbuggy</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6">
+        <v>200</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit_Hovercopter</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6</v>
+      </c>
+      <c r="I16" s="6">
+        <v>200</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit_Hovertank</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>200</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5404A-750F-49FA-9E6C-29C2C44733A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7066381-429B-4796-BA34-28EC70DBD051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="324" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -202,13 +202,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HeadQuarter1</t>
-  </si>
-  <si>
-    <t>大本营1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>炮塔1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -347,18 +340,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_MachineGunTower1</t>
-  </si>
-  <si>
-    <t>Skill_RocketTower_1</t>
-  </si>
-  <si>
-    <t>Skill_LaserTower_0</t>
-  </si>
-  <si>
-    <t>Skill_HoverTankNormal1</t>
-  </si>
-  <si>
     <t>Skill_MachineGunTower1;Skill_RocketTower_1;Skill_LaserTower_0;Skill_EnergyPylon_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -367,10 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_EnergyPylon_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>deathShow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -387,14 +364,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_HoverTankNormal1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bodyRadius</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -416,6 +385,101 @@
   </si>
   <si>
     <t>rotationSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower1</t>
+  </si>
+  <si>
+    <t>Tower2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster2</t>
+  </si>
+  <si>
+    <t>Monster3</t>
+  </si>
+  <si>
+    <t>Monster4</t>
+  </si>
+  <si>
+    <t>string#ref=propertyType@UnitPropertyCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>Skill_PlayerAoe1</t>
+  </si>
+  <si>
+    <t>Skill_PlayerLine1</t>
+  </si>
+  <si>
+    <t>Skill_PlayerCircle1</t>
+  </si>
+  <si>
+    <t>Skill_EnemySolo1</t>
+  </si>
+  <si>
+    <t>射击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadQuarter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +529,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -526,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -534,8 +607,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -544,10 +618,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -821,23 +900,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="14" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -853,30 +939,32 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1"/>
+        <v>73</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -893,8 +981,9 @@
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF1"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -911,7 +1000,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2"/>
+      <c r="O2" s="3"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -928,8 +1017,9 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF2"/>
+    </row>
+    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -945,30 +1035,32 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>83</v>
+        <v>43</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3"/>
+        <v>76</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -985,8 +1077,9 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1098,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4"/>
+      <c r="O4" s="4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1022,8 +1115,9 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1039,30 +1133,32 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5"/>
+        <v>74</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1079,8 +1175,9 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D16" si="0">B6&amp;"_"&amp;C6</f>
         <v>Unit_Player1</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1098,29 +1195,32 @@
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="6">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>200</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>0.5</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="M6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1138,29 +1238,32 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="6">
+        <v>52</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6">
         <v>6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>200</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <v>0.5</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="M7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1178,189 +1281,204 @@
         <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="6">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6">
         <v>6</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>200</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>0.5</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="M8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>Unit_HeadQuarter1</v>
+        <v>Unit_HeadQuarter</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="6">
+        <v>47</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>200</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <v>0.5</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="M9" s="6" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="D10" t="str">
+        <f t="shared" ref="D10" si="1">B10&amp;"_"&amp;C10</f>
+        <v>Unit_MonsterCall</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6">
+        <v>200</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
+        <v>Unit_Observer</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>200</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Unit_MachineGunTower_0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="I12" s="6">
         <v>6</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J12" s="6">
         <v>200</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K12" s="6">
         <v>0.5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D12" si="1">B11&amp;"_"&amp;C11</f>
-        <v>Unit_EnergyPylon_2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6">
-        <v>200</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_LaserTower_0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="6">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6">
-        <v>200</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="M12" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="O12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1368,201 +1486,312 @@
         <v>39</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ref="D13" si="2">B13&amp;"_"&amp;C13</f>
-        <v>Unit_RocketTower_1</v>
+        <f t="shared" ref="D13:D14" si="3">B13&amp;"_"&amp;C13</f>
+        <v>Unit_EnergyPylon_2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="6">
+        <v>49</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6">
         <v>6</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>200</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <v>0.5</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="M13" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D14" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit_LaserTower_0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="6">
+        <v>6</v>
+      </c>
+      <c r="J14" s="6">
+        <v>200</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="4">B15&amp;"_"&amp;C15</f>
+        <v>Unit_RocketTower_1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6">
+        <v>200</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>Unit_Hoverboss</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="6">
         <v>8</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J16" s="6">
         <v>200</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K16" s="6">
         <v>0.5</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D17" si="3">B15&amp;"_"&amp;C15</f>
-        <v>Unit_Hoverbuggy</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="6">
-        <v>6</v>
-      </c>
-      <c r="I15" s="6">
-        <v>200</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="3"/>
-        <v>Unit_Hovercopter</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6</v>
-      </c>
-      <c r="I16" s="6">
-        <v>200</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="M16" s="6" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
-        <v>Unit_Hovertank</v>
+        <f t="shared" ref="D17:D19" si="5">B17&amp;"_"&amp;C17</f>
+        <v>Unit_Hoverbuggy</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>6</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>200</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <v>0.5</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="M17" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>Unit_Hovercopter</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="6">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>200</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="5"/>
+        <v>Unit_Hovertank</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="6">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6">
+        <v>200</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" xr:uid="{8DCEDECD-3BB4-4B38-B1FF-D089D43E2F2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7066381-429B-4796-BA34-28EC70DBD051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C2744-E45F-46CA-81BD-3247AAA545A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="324" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -210,31 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ResUnit_MachineGunTower_0</t>
-  </si>
-  <si>
-    <t>MachineGunTower_0</t>
-  </si>
-  <si>
-    <t>ResUnit_EnergyPylon_2</t>
-  </si>
-  <si>
-    <t>ResUnit_LaserTower_0</t>
-  </si>
-  <si>
-    <t>ResUnit_RocketTower_1</t>
-  </si>
-  <si>
-    <t>RocketTower_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserTower_0</t>
-  </si>
-  <si>
-    <t>EnergyPylon_2</t>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -294,20 +269,6 @@
     <t>坦克4</t>
   </si>
   <si>
-    <t>Hovercopter</t>
-  </si>
-  <si>
-    <t>Hovertank</t>
-  </si>
-  <si>
-    <t>Hoverbuggy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hoverboss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIcon_Hoverboss</t>
   </si>
   <si>
@@ -320,18 +281,6 @@
     <t>ResIcon_Hovertank</t>
   </si>
   <si>
-    <t>ResUnit_Hoverboss</t>
-  </si>
-  <si>
-    <t>ResUnit_Hoverbuggy</t>
-  </si>
-  <si>
-    <t>ResUnit_Hovercopter</t>
-  </si>
-  <si>
-    <t>ResUnit_Hovertank</t>
-  </si>
-  <si>
     <t>skillList</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,9 +377,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_PlayerSolo1</t>
-  </si>
-  <si>
     <t>Skill_PlayerAoe1</t>
   </si>
   <si>
@@ -480,6 +426,54 @@
   </si>
   <si>
     <t>大本营</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common1</t>
+  </si>
+  <si>
+    <t>Quick1</t>
+  </si>
+  <si>
+    <t>Tank1</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>ResIcon_MonsterCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_MonsterCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体高度(判断位置，判断伤害什么的)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_PlayerSolo1;Skill_PlayerAttackGotGold1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -900,30 +894,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="6.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="15" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -939,33 +934,35 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1"/>
+        <v>57</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -982,8 +979,9 @@
       <c r="AD1"/>
       <c r="AE1"/>
       <c r="AF1"/>
+      <c r="AG1"/>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +999,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2"/>
+      <c r="P2" s="3"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -1018,8 +1016,9 @@
       <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
+      <c r="AG2"/>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1035,33 +1034,35 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3"/>
+        <v>60</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -1078,8 +1079,9 @@
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
+      <c r="AG3"/>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1101,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4"/>
+      <c r="P4" s="4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -1116,8 +1118,9 @@
       <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4"/>
+      <c r="AG4"/>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1133,33 +1136,35 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5"/>
+        <v>58</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1176,8 +1181,9 @@
       <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5"/>
+      <c r="AG5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>22</v>
@@ -1207,20 +1213,23 @@
         <v>200</v>
       </c>
       <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <v>0.5</v>
       </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>24</v>
@@ -1250,20 +1259,23 @@
         <v>200</v>
       </c>
       <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <v>0.5</v>
       </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>93</v>
+      <c r="M7" s="6">
+        <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1281,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>25</v>
@@ -1293,36 +1305,39 @@
         <v>200</v>
       </c>
       <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
         <v>0.5</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>85</v>
+      <c r="M8" s="6">
+        <v>1</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Unit_HeadQuarter</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>29</v>
@@ -1334,41 +1349,44 @@
         <v>200</v>
       </c>
       <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <v>0.5</v>
       </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="O9" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ref="D10" si="1">B10&amp;"_"&amp;C10</f>
         <v>Unit_MonsterCall</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="I10" s="6">
         <v>6</v>
@@ -1377,36 +1395,39 @@
         <v>200</v>
       </c>
       <c r="K10" s="6">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6">
         <v>0.5</v>
       </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>93</v>
+      <c r="M10" s="6">
+        <v>1</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
         <v>Unit_Observer</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>22</v>
@@ -1418,43 +1439,47 @@
         <v>200</v>
       </c>
       <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
         <v>0.5</v>
       </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="O11" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>Unit_MachineGunTower_0</v>
+        <v>Unit_Solo1</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>"ResUnit_"&amp;C12</f>
+        <v>ResUnit_Solo1</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
@@ -1463,43 +1488,47 @@
         <v>200</v>
       </c>
       <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
         <v>0.5</v>
       </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>85</v>
+      <c r="M12" s="6">
+        <v>1</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ref="D13:D14" si="3">B13&amp;"_"&amp;C13</f>
-        <v>Unit_EnergyPylon_2</v>
+        <v>Unit_Aoe1</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" ref="H13:H19" si="4">"ResUnit_"&amp;C13</f>
+        <v>ResUnit_Aoe1</v>
       </c>
       <c r="I13" s="6">
         <v>6</v>
@@ -1508,43 +1537,47 @@
         <v>200</v>
       </c>
       <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
         <v>0.5</v>
       </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>86</v>
+      <c r="M13" s="6">
+        <v>1</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_LaserTower_0</v>
+        <v>Unit_Line1</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_Line1</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
@@ -1553,43 +1586,47 @@
         <v>200</v>
       </c>
       <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
         <v>0.5</v>
       </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>87</v>
+      <c r="M14" s="6">
+        <v>1</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>96</v>
+        <v>59</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15" si="4">B15&amp;"_"&amp;C15</f>
-        <v>Unit_RocketTower_1</v>
+        <f t="shared" ref="D15" si="5">B15&amp;"_"&amp;C15</f>
+        <v>Unit_Circle1</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_Circle1</v>
       </c>
       <c r="I15" s="6">
         <v>6</v>
@@ -1598,40 +1635,44 @@
         <v>200</v>
       </c>
       <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
         <v>0.5</v>
       </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>88</v>
+      <c r="M15" s="6">
+        <v>1</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>97</v>
+        <v>59</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Unit_Hoverboss</v>
+        <v>Unit_Common1</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_Common1</v>
       </c>
       <c r="I16" s="6">
         <v>8</v>
@@ -1640,41 +1681,43 @@
         <v>200</v>
       </c>
       <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
         <v>0.5</v>
       </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="O16" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D19" si="5">B17&amp;"_"&amp;C17</f>
-        <v>Unit_Hoverbuggy</v>
+        <f t="shared" ref="D17:D19" si="6">B17&amp;"_"&amp;C17</f>
+        <v>Unit_Quick1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_Quick1</v>
       </c>
       <c r="I17" s="6">
         <v>6</v>
@@ -1683,41 +1726,43 @@
         <v>200</v>
       </c>
       <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
         <v>0.5</v>
       </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>89</v>
+      <c r="M17" s="6">
+        <v>1</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="5"/>
-        <v>Unit_Hovercopter</v>
+        <f t="shared" si="6"/>
+        <v>Unit_Tank1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_Tank1</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
@@ -1726,43 +1771,45 @@
         <v>200</v>
       </c>
       <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
         <v>0.5</v>
       </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>90</v>
+      <c r="M18" s="6">
+        <v>1</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="5"/>
-        <v>Unit_Hovertank</v>
+        <f t="shared" si="6"/>
+        <v>Unit_Attack1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>ResUnit_Attack1</v>
       </c>
       <c r="I19" s="6">
         <v>6</v>
@@ -1771,25 +1818,28 @@
         <v>200</v>
       </c>
       <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
         <v>0.5</v>
       </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>91</v>
+      <c r="M19" s="6">
+        <v>1</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>98</v>
+        <v>59</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{8DCEDECD-3BB4-4B38-B1FF-D089D43E2F2F}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{8DCEDECD-3BB4-4B38-B1FF-D089D43E2F2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C2744-E45F-46CA-81BD-3247AAA545A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A68E30-0E84-4FBF-AFAD-455C46791B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="208">
   <si>
     <t>##var</t>
   </si>
@@ -90,9 +90,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -143,10 +140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>prefab2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -155,10 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对象2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>res_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,10 +168,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ResUnit_Monster1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResUnit_SceneEffectNone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,14 +187,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>炮塔1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -252,32 +229,10 @@
     <t>ResIcon_RocketTower_1</t>
   </si>
   <si>
-    <t>ResIcon_Monster1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ResIcon_NULL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>坦克2</t>
-  </si>
-  <si>
-    <t>坦克3</t>
-  </si>
-  <si>
-    <t>坦克4</t>
-  </si>
-  <si>
-    <t>ResIcon_Hoverboss</t>
-  </si>
-  <si>
-    <t>ResIcon_Hoverbuggy</t>
-  </si>
-  <si>
-    <t>ResIcon_Hovercopter</t>
-  </si>
-  <si>
     <t>ResIcon_Hovertank</t>
   </si>
   <si>
@@ -386,9 +341,6 @@
     <t>Skill_PlayerCircle1</t>
   </si>
   <si>
-    <t>Skill_EnemySolo1</t>
-  </si>
-  <si>
     <t>射击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -445,18 +397,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Common1</t>
-  </si>
-  <si>
-    <t>Quick1</t>
-  </si>
-  <si>
-    <t>Tank1</t>
-  </si>
-  <si>
-    <t>Attack1</t>
-  </si>
-  <si>
     <t>ResIcon_MonsterCall</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -473,7 +413,397 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_PlayerSolo1;Skill_PlayerAttackGotGold1</t>
+    <t>DeathShow_Null</t>
+  </si>
+  <si>
+    <t>idle_timeline_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=TimelineCfgCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Idle1</t>
+  </si>
+  <si>
+    <t>Timeline_Move1</t>
+  </si>
+  <si>
+    <t>move_timeline_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Idle1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_PlayerSolo1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster5</t>
+  </si>
+  <si>
+    <t>Monster6</t>
+  </si>
+  <si>
+    <t>Monster7</t>
+  </si>
+  <si>
+    <t>Monster8</t>
+  </si>
+  <si>
+    <t>Monster9</t>
+  </si>
+  <si>
+    <t>DeathShow_1</t>
+  </si>
+  <si>
+    <t>Solo3</t>
+  </si>
+  <si>
+    <t>弩箭塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_ArrowSolo_1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_ArrowSolo_2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_ArrowSolo_3</t>
+  </si>
+  <si>
+    <t>加农炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Canon_1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Canon_2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_Canon_3</t>
+  </si>
+  <si>
+    <t>Aoe2</t>
+  </si>
+  <si>
+    <t>Aoe3</t>
+  </si>
+  <si>
+    <t>Line2</t>
+  </si>
+  <si>
+    <t>Line3</t>
+  </si>
+  <si>
+    <t>火图腾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_Tower_FireLine_1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_FireLine_2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_FireLine_3</t>
+  </si>
+  <si>
+    <t>Circle2</t>
+  </si>
+  <si>
+    <t>Circle3</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_DragCircle_1</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_DragCircle_2</t>
+  </si>
+  <si>
+    <t>ResUnit_Tower_DragCircle_3</t>
+  </si>
+  <si>
+    <t>PlayerPK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_PlayerLine2</t>
+  </si>
+  <si>
+    <t>Skill_PlayerLine3</t>
+  </si>
+  <si>
+    <t>蝙蝠1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠2</t>
+  </si>
+  <si>
+    <t>蝙蝠3</t>
+  </si>
+  <si>
+    <t>暗影蛋1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影蛋2</t>
+  </si>
+  <si>
+    <t>暗影蛋3</t>
+  </si>
+  <si>
+    <t>蜘蛛1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛2</t>
+  </si>
+  <si>
+    <t>蜘蛛3</t>
+  </si>
+  <si>
+    <t>Skill_PlayerSolo2</t>
+  </si>
+  <si>
+    <t>Skill_PlayerSolo3</t>
+  </si>
+  <si>
+    <t>Skill_PlayerAoe2</t>
+  </si>
+  <si>
+    <t>Skill_PlayerAoe3</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solo2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠1</t>
+  </si>
+  <si>
+    <t>蜘蛛1</t>
+  </si>
+  <si>
+    <t>暗影蛋1</t>
+  </si>
+  <si>
+    <t>attackPointHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击点高度(判断连通时会不会被阻挡)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNeedChkMesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要检测Mesh(判断攻击目标时)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙击炮2</t>
+  </si>
+  <si>
+    <t>龙击炮3</t>
+  </si>
+  <si>
+    <t>雷电塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电塔2</t>
+  </si>
+  <si>
+    <t>雷电塔3</t>
+  </si>
+  <si>
+    <t>冰魔塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔2</t>
+  </si>
+  <si>
+    <t>冰魔塔3</t>
+  </si>
+  <si>
+    <t>加速塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔2</t>
+  </si>
+  <si>
+    <t>加速塔3</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerDragon1</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerDragon2</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerDragon3</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerElec1</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerElec2</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerElec3</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerIce1</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerIce2</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerIce3</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerTime1</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerTime2</t>
+  </si>
+  <si>
+    <t>ResUnit_TowerTime3</t>
+  </si>
+  <si>
+    <t>TowerDragon1</t>
+  </si>
+  <si>
+    <t>TowerDragon2</t>
+  </si>
+  <si>
+    <t>TowerDragon3</t>
+  </si>
+  <si>
+    <t>TowerElec1</t>
+  </si>
+  <si>
+    <t>TowerElec2</t>
+  </si>
+  <si>
+    <t>TowerElec3</t>
+  </si>
+  <si>
+    <t>TowerIce1</t>
+  </si>
+  <si>
+    <t>TowerIce2</t>
+  </si>
+  <si>
+    <t>TowerIce3</t>
+  </si>
+  <si>
+    <t>TowerTime1</t>
+  </si>
+  <si>
+    <t>TowerTime2</t>
+  </si>
+  <si>
+    <t>TowerTime3</t>
+  </si>
+  <si>
+    <t>Tower5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower6</t>
+  </si>
+  <si>
+    <t>Tower7</t>
+  </si>
+  <si>
+    <t>Tower8</t>
+  </si>
+  <si>
+    <t>Skill_TowerDragon1</t>
+  </si>
+  <si>
+    <t>Skill_TowerDragon2</t>
+  </si>
+  <si>
+    <t>Skill_TowerDragon3</t>
+  </si>
+  <si>
+    <t>Skill_TowerElec1</t>
+  </si>
+  <si>
+    <t>Skill_TowerElec2</t>
+  </si>
+  <si>
+    <t>Skill_TowerElec3</t>
+  </si>
+  <si>
+    <t>Skill_TowerIce1</t>
+  </si>
+  <si>
+    <t>Skill_TowerIce2</t>
+  </si>
+  <si>
+    <t>Skill_TowerIce3</t>
+  </si>
+  <si>
+    <t>Skill_TowerTime1</t>
+  </si>
+  <si>
+    <t>Skill_TowerTime2</t>
+  </si>
+  <si>
+    <t>Skill_TowerTime3</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerDragon1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerElec1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerIce1</t>
+  </si>
+  <si>
+    <t>ResIcon_TowerTime1</t>
+  </si>
+  <si>
+    <t>ResUnit_Observer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -592,6 +922,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -603,7 +959,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -615,6 +971,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -894,10 +1263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -906,19 +1276,24 @@
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="39" customWidth="1"/>
+    <col min="22" max="22" width="75.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -927,48 +1302,56 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H1" s="14"/>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
@@ -980,18 +1363,24 @@
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+    </row>
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1000,12 +1389,12 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -1017,58 +1406,72 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
-    </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+    </row>
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>76</v>
+        <v>149</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
@@ -1080,20 +1483,26 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
-    </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+    </row>
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="12"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1102,12 +1511,12 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -1119,58 +1528,72 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4"/>
-    </row>
-    <row r="5" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+    </row>
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
+        <v>49</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
@@ -1182,664 +1605,2653 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D16" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D12" si="0">B6&amp;"_"&amp;C6</f>
         <v>Unit_Player1</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6" t="str">
+        <f>"Text_Key_Name_"&amp;D6</f>
+        <v>Text_Key_Name_Unit_Player1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f>"Text_Key_Desc_"&amp;D6</f>
+        <v>Text_Key_Desc_Unit_Player1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="6">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6">
+        <v>400</v>
+      </c>
+      <c r="M6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="6">
-        <v>6</v>
-      </c>
-      <c r="J6" s="6">
-        <v>200</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>Unit_Monster1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>Unit_SceneEffectNone</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" ref="E7:E44" si="1">"Text_Key_Name_"&amp;D7</f>
+        <v>Text_Key_Name_Unit_SceneEffectNone</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f t="shared" ref="G7:G44" si="2">"Text_Key_Desc_"&amp;D7</f>
+        <v>Text_Key_Desc_Unit_SceneEffectNone</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="6">
-        <v>200</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
       <c r="L7" s="6">
+        <v>400</v>
+      </c>
+      <c r="M7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
         <v>0.5</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Unit_SceneEffectNone</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="6">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6">
-        <v>200</v>
+        <f t="shared" ref="D8" si="3">B8&amp;"_"&amp;C8</f>
+        <v>Unit_PlayerPK</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_PlayerPK</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_PlayerPK</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="K8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L8" s="6">
+        <v>400</v>
+      </c>
+      <c r="M8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
         <v>0.5</v>
       </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>Unit_HeadQuarter</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_HeadQuarter</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_HeadQuarter</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="6">
         <v>10</v>
       </c>
-      <c r="J9" s="6">
-        <v>200</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
       <c r="L9" s="6">
+        <v>400</v>
+      </c>
+      <c r="M9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="O9" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="P9" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10" si="4">B10&amp;"_"&amp;C10</f>
+        <v>Unit_MonsterCall</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_MonsterCall</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_MonsterCall</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="6">
+        <v>6</v>
+      </c>
+      <c r="L10" s="6">
+        <v>400</v>
+      </c>
+      <c r="M10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
         <v>0.5</v>
       </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10" si="1">B10&amp;"_"&amp;C10</f>
-        <v>Unit_MonsterCall</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="6">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6">
-        <v>200</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="U10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11" si="2">B11&amp;"_"&amp;C11</f>
+        <f t="shared" ref="D11" si="5">B11&amp;"_"&amp;C11</f>
         <v>Unit_Observer</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Observer</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Observer</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="6">
         <v>10</v>
       </c>
-      <c r="J11" s="6">
-        <v>200</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
       <c r="L11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="M11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>Unit_Solo1</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="6" t="str">
-        <f>"ResUnit_"&amp;C12</f>
-        <v>ResUnit_Solo1</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Solo1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Solo1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="6">
         <v>6</v>
       </c>
-      <c r="J12" s="6">
+      <c r="L12" s="6">
+        <v>400</v>
+      </c>
+      <c r="M12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13" si="6">B13&amp;"_"&amp;C13</f>
+        <v>Unit_Solo2</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Solo2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Solo2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="6">
+        <v>6</v>
+      </c>
+      <c r="L13" s="6">
+        <v>400</v>
+      </c>
+      <c r="M13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="7">B14&amp;"_"&amp;C14</f>
+        <v>Unit_Solo3</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Solo3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Solo3</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="6">
+        <v>6</v>
+      </c>
+      <c r="L14" s="6">
+        <v>400</v>
+      </c>
+      <c r="M14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>2</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D18" si="8">B15&amp;"_"&amp;C15</f>
+        <v>Unit_Aoe1</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Aoe1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Aoe1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="6">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6">
+        <v>400</v>
+      </c>
+      <c r="M15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16" si="9">B16&amp;"_"&amp;C16</f>
+        <v>Unit_Aoe2</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Aoe2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Aoe2</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="6">
+        <v>6</v>
+      </c>
+      <c r="L16" s="6">
+        <v>400</v>
+      </c>
+      <c r="M16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17" si="10">B17&amp;"_"&amp;C17</f>
+        <v>Unit_Aoe3</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Aoe3</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Aoe3</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="6">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6">
+        <v>400</v>
+      </c>
+      <c r="M17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="8"/>
+        <v>Unit_Line1</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Line1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Line1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="6">
+        <v>6</v>
+      </c>
+      <c r="L18" s="6">
+        <v>400</v>
+      </c>
+      <c r="M18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19" si="11">B19&amp;"_"&amp;C19</f>
+        <v>Unit_Line2</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Line2</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Line2</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6">
+        <v>400</v>
+      </c>
+      <c r="M19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>2</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20" si="12">B20&amp;"_"&amp;C20</f>
+        <v>Unit_Line3</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Line3</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Line3</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="6">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6">
+        <v>400</v>
+      </c>
+      <c r="M20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>2</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:D22" si="13">B21&amp;"_"&amp;C21</f>
+        <v>Unit_Circle1</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Circle1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Circle1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="6">
+        <v>6</v>
+      </c>
+      <c r="L21" s="6">
+        <v>400</v>
+      </c>
+      <c r="M21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>2</v>
+      </c>
+      <c r="O21" s="6">
+        <v>2</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="13"/>
+        <v>Unit_Circle2</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Circle2</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Circle2</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="6">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6">
+        <v>400</v>
+      </c>
+      <c r="M22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>2</v>
+      </c>
+      <c r="O22" s="6">
+        <v>2</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23" si="14">B23&amp;"_"&amp;C23</f>
+        <v>Unit_Circle3</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Circle3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Circle3</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="6">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6">
+        <v>400</v>
+      </c>
+      <c r="M23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24" si="15">B24&amp;"_"&amp;C24</f>
+        <v>Unit_Monster1</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f t="shared" ref="J24" si="16">"ResUnit_"&amp;C24</f>
+        <v>ResUnit_Monster1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6">
+        <v>400</v>
+      </c>
+      <c r="M24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:D44" si="17">B25&amp;"_"&amp;C25</f>
+        <v>Unit_Monster2</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster2</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f t="shared" ref="J25:J32" si="18">"ResUnit_"&amp;C25</f>
+        <v>ResUnit_Monster2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>3</v>
+      </c>
+      <c r="L25" s="6">
+        <v>400</v>
+      </c>
+      <c r="M25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster3</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster3</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster3</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster3</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3</v>
+      </c>
+      <c r="L26" s="6">
+        <v>400</v>
+      </c>
+      <c r="M26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6">
+        <v>3</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster4</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster4</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster4</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster4</v>
+      </c>
+      <c r="K27" s="6">
+        <v>9</v>
+      </c>
+      <c r="L27" s="6">
+        <v>400</v>
+      </c>
+      <c r="M27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster5</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster5</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster5</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster5</v>
+      </c>
+      <c r="K28" s="6">
+        <v>9</v>
+      </c>
+      <c r="L28" s="6">
+        <v>400</v>
+      </c>
+      <c r="M28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster6</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster6</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster6</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster6</v>
+      </c>
+      <c r="K29" s="6">
+        <v>9</v>
+      </c>
+      <c r="L29" s="6">
+        <v>400</v>
+      </c>
+      <c r="M29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O29" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster7</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster7</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster7</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3</v>
+      </c>
+      <c r="L30" s="6">
+        <v>400</v>
+      </c>
+      <c r="M30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>1</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster8</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster8</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster8</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster8</v>
+      </c>
+      <c r="K31" s="6">
+        <v>3</v>
+      </c>
+      <c r="L31" s="6">
+        <v>400</v>
+      </c>
+      <c r="M31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="O31" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>1</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_Monster9</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_Monster9</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_Monster9</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="6" t="str">
+        <f t="shared" si="18"/>
+        <v>ResUnit_Monster9</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L32" s="6">
+        <v>400</v>
+      </c>
+      <c r="M32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O32" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>1</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerDragon1</v>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerDragon1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerDragon1</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" s="6">
+        <v>6</v>
+      </c>
+      <c r="L33" s="6">
+        <v>400</v>
+      </c>
+      <c r="M33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6">
+        <v>2</v>
+      </c>
+      <c r="O33" s="6">
+        <v>2</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerDragon2</v>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerDragon2</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerDragon2</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K34" s="6">
+        <v>6</v>
+      </c>
+      <c r="L34" s="6">
+        <v>400</v>
+      </c>
+      <c r="M34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>2</v>
+      </c>
+      <c r="O34" s="6">
+        <v>2</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerDragon3</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerDragon3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerDragon3</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="6">
+        <v>6</v>
+      </c>
+      <c r="L35" s="6">
+        <v>400</v>
+      </c>
+      <c r="M35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>2</v>
+      </c>
+      <c r="O35" s="6">
+        <v>2</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerElec1</v>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerElec1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerElec1</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="6">
+        <v>6</v>
+      </c>
+      <c r="L36" s="6">
+        <v>400</v>
+      </c>
+      <c r="M36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>2</v>
+      </c>
+      <c r="O36" s="6">
+        <v>2</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerElec2</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerElec2</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerElec2</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J37" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="6">
+        <v>6</v>
+      </c>
+      <c r="L37" s="6">
+        <v>400</v>
+      </c>
+      <c r="M37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>2</v>
+      </c>
+      <c r="O37" s="6">
+        <v>2</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerElec3</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerElec3</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerElec3</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="6">
+        <v>6</v>
+      </c>
+      <c r="L38" s="6">
+        <v>400</v>
+      </c>
+      <c r="M38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>2</v>
+      </c>
+      <c r="O38" s="6">
+        <v>2</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerIce1</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerIce1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerIce1</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K39" s="6">
+        <v>6</v>
+      </c>
+      <c r="L39" s="6">
+        <v>400</v>
+      </c>
+      <c r="M39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" s="6">
+        <v>2</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>1</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerIce2</v>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerIce2</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerIce2</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" t="s">
+        <v>170</v>
+      </c>
+      <c r="K40" s="6">
+        <v>6</v>
+      </c>
+      <c r="L40" s="6">
+        <v>400</v>
+      </c>
+      <c r="M40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="6">
+        <v>2</v>
+      </c>
+      <c r="O40" s="6">
+        <v>2</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>1</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerIce3</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerIce3</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerIce3</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="6">
+        <v>6</v>
+      </c>
+      <c r="L41" s="6">
+        <v>400</v>
+      </c>
+      <c r="M41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6">
+        <v>2</v>
+      </c>
+      <c r="O41" s="6">
+        <v>2</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>1</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerTime1</v>
+      </c>
+      <c r="E42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerTime1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerTime1</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J42" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="6">
+        <v>6</v>
+      </c>
+      <c r="L42" s="6">
+        <v>400</v>
+      </c>
+      <c r="M42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>2</v>
+      </c>
+      <c r="O42" s="6">
+        <v>2</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>1</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V42" t="s">
         <v>200</v>
       </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6">
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerTime2</v>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerTime2</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerTime2</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" s="6">
+        <v>6</v>
+      </c>
+      <c r="L43" s="6">
+        <v>400</v>
+      </c>
+      <c r="M43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>2</v>
+      </c>
+      <c r="O43" s="6">
+        <v>2</v>
+      </c>
+      <c r="P43" s="6">
         <v>0.5</v>
       </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D13:D14" si="3">B13&amp;"_"&amp;C13</f>
-        <v>Unit_Aoe1</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="6" t="str">
-        <f t="shared" ref="H13:H19" si="4">"ResUnit_"&amp;C13</f>
-        <v>ResUnit_Aoe1</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="Q43" s="6">
+        <v>1</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="17"/>
+        <v>Unit_TowerTime3</v>
+      </c>
+      <c r="E44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Text_Key_Name_Unit_TowerTime3</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Desc_Unit_TowerTime3</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44" s="6">
         <v>6</v>
       </c>
-      <c r="J13" s="6">
-        <v>200</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="L44" s="6">
+        <v>400</v>
+      </c>
+      <c r="M44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>2</v>
+      </c>
+      <c r="O44" s="6">
+        <v>2</v>
+      </c>
+      <c r="P44" s="6">
         <v>0.5</v>
       </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="3"/>
-        <v>Unit_Line1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_Line1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>6</v>
-      </c>
-      <c r="J14" s="6">
-        <v>200</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15" si="5">B15&amp;"_"&amp;C15</f>
-        <v>Unit_Circle1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_Circle1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>6</v>
-      </c>
-      <c r="J15" s="6">
-        <v>200</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>Unit_Common1</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_Common1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>8</v>
-      </c>
-      <c r="J16" s="6">
-        <v>200</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ref="D17:D19" si="6">B17&amp;"_"&amp;C17</f>
-        <v>Unit_Quick1</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_Quick1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>6</v>
-      </c>
-      <c r="J17" s="6">
-        <v>200</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="6"/>
-        <v>Unit_Tank1</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_Tank1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>6</v>
-      </c>
-      <c r="J18" s="6">
-        <v>200</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="6"/>
-        <v>Unit_Attack1</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>ResUnit_Attack1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>6</v>
-      </c>
-      <c r="J19" s="6">
-        <v>200</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>81</v>
+      <c r="Q44" s="6">
+        <v>1</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V44" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{8DCEDECD-3BB4-4B38-B1FF-D089D43E2F2F}"/>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{8DCEDECD-3BB4-4B38-B1FF-D089D43E2F2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -5,28 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A68E30-0E84-4FBF-AFAD-455C46791B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD202F0-26F9-4D2D-B908-CBA76D82C946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -811,7 +800,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +851,24 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -959,7 +966,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -973,6 +980,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1265,35 +1278,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" customWidth="1"/>
+    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="14" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="16" width="24.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="39" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="39" customWidth="1"/>
-    <col min="22" max="22" width="75.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="75.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1302,14 +1315,14 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1370,17 +1383,17 @@
       <c r="AL1"/>
       <c r="AM1"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1413,7 +1426,7 @@
       <c r="AL2"/>
       <c r="AM2"/>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1422,14 +1435,14 @@
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1503,7 @@
       <c r="AL3"/>
       <c r="AM3"/>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1499,10 +1512,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1535,7 +1548,7 @@
       <c r="AL4"/>
       <c r="AM4"/>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +1625,7 @@
       <c r="AL5"/>
       <c r="AM5"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1691,7 @@
       </c>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1757,7 @@
       </c>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +1821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1874,7 +1887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1938,7 +1951,7 @@
       </c>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2085,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -2140,7 +2153,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
@@ -2208,7 +2221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2276,7 +2289,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +2357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
@@ -2480,7 +2493,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
@@ -2616,7 +2629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2752,7 +2765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2820,610 +2833,601 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="11" t="str">
         <f t="shared" ref="D24" si="15">B24&amp;"_"&amp;C24</f>
         <v>Unit_Monster1</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster1</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="10" t="str">
+      <c r="G24" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster1</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="6" t="str">
+      <c r="J24" s="11" t="str">
         <f t="shared" ref="J24" si="16">"ResUnit_"&amp;C24</f>
         <v>ResUnit_Monster1</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="11">
         <v>3</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="11">
         <v>400</v>
       </c>
-      <c r="M24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="M24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11">
         <v>0.2</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="11">
         <v>0.2</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="11">
         <v>0.2</v>
       </c>
-      <c r="Q24" s="6">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6" t="s">
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V24" s="6"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="25" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="11" t="str">
         <f t="shared" ref="D25:D44" si="17">B25&amp;"_"&amp;C25</f>
         <v>Unit_Monster2</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster2</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="10" t="str">
+      <c r="G25" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster2</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="6" t="str">
+      <c r="J25" s="11" t="str">
         <f t="shared" ref="J25:J32" si="18">"ResUnit_"&amp;C25</f>
         <v>ResUnit_Monster2</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="11">
         <v>3</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="11">
         <v>400</v>
       </c>
-      <c r="M25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11">
         <v>0.7</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="11">
         <v>0.7</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="11">
         <v>0.2</v>
       </c>
-      <c r="Q25" s="6">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="Q25" s="11">
+        <v>1</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="S25" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="T25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="U25" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V25" s="6"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="26" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster3</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="E26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster3</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="10" t="str">
+      <c r="G26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster3</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="6" t="str">
+      <c r="J26" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster3</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="11">
         <v>3</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="11">
         <v>400</v>
       </c>
-      <c r="M26" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
+      <c r="M26" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" s="11">
         <v>3</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="11">
         <v>3</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="11">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="6">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6" t="s">
+      <c r="Q26" s="11">
+        <v>1</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T26" s="6" t="s">
+      <c r="T26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U26" s="6" t="s">
+      <c r="U26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V26" s="6"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="27" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster4</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="E27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster4</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="10" t="str">
+      <c r="G27" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster4</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="6" t="str">
+      <c r="J27" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster4</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="11">
         <v>9</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="11">
         <v>400</v>
       </c>
-      <c r="M27" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="M27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" s="11">
         <v>0.4</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="11">
         <v>0.4</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="6">
-        <v>1</v>
-      </c>
-      <c r="R27" s="6" t="s">
+      <c r="Q27" s="11">
+        <v>1</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T27" s="6" t="s">
+      <c r="T27" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U27" s="6" t="s">
+      <c r="U27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V27" s="6"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="28" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster5</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="E28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster5</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="10" t="str">
+      <c r="G28" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster5</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="6" t="str">
+      <c r="J28" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster5</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="11">
         <v>9</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="11">
         <v>400</v>
       </c>
-      <c r="M28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6">
-        <v>1</v>
-      </c>
-      <c r="O28" s="6">
-        <v>1</v>
-      </c>
-      <c r="P28" s="6">
+      <c r="M28" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11">
+        <v>1</v>
+      </c>
+      <c r="P28" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="6">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6" t="s">
+      <c r="Q28" s="11">
+        <v>1</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="T28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U28" s="6" t="s">
+      <c r="U28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V28" s="6"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="29" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster6</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="E29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster6</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="10" t="str">
+      <c r="G29" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster6</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="6" t="str">
+      <c r="J29" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster6</v>
       </c>
-      <c r="K29" s="6">
-        <v>9</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="K29" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="11">
         <v>400</v>
       </c>
-      <c r="M29" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29" s="6">
+      <c r="M29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q29" s="6">
-        <v>1</v>
-      </c>
-      <c r="R29" s="6" t="s">
+      <c r="Q29" s="11">
+        <v>1</v>
+      </c>
+      <c r="R29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="S29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T29" s="6" t="s">
+      <c r="T29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="U29" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V29" s="6"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="30" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster7</v>
       </c>
-      <c r="E30" s="6" t="str">
+      <c r="E30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster7</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="10" t="str">
+      <c r="G30" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster7</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="6" t="str">
+      <c r="J30" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster7</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="11">
         <v>3</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="11">
         <v>400</v>
       </c>
-      <c r="M30" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" s="6">
+      <c r="M30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11">
         <v>0.9</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="11">
         <v>0.9</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q30" s="6">
-        <v>1</v>
-      </c>
-      <c r="R30" s="6" t="s">
+      <c r="Q30" s="11">
+        <v>1</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="S30" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="T30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="U30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V30" s="6"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="31" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster8</v>
       </c>
-      <c r="E31" s="6" t="str">
+      <c r="E31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster8</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="10" t="str">
+      <c r="G31" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster8</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="6" t="str">
+      <c r="J31" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster8</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="11">
         <v>3</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="11">
         <v>400</v>
       </c>
-      <c r="M31" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" s="6">
+      <c r="M31" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="11">
         <v>1.2</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="11">
         <v>1.2</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="6">
-        <v>1</v>
-      </c>
-      <c r="R31" s="6" t="s">
+      <c r="Q31" s="11">
+        <v>1</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="T31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="U31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V31" s="6"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="32" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="11" t="str">
         <f t="shared" si="17"/>
         <v>Unit_Monster9</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="E32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_Monster9</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_Monster9</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J32" s="6" t="str">
+      <c r="J32" s="11" t="str">
         <f t="shared" si="18"/>
         <v>ResUnit_Monster9</v>
       </c>
-      <c r="K32" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="K32" s="11">
+        <v>2</v>
+      </c>
+      <c r="L32" s="11">
         <v>400</v>
       </c>
-      <c r="M32" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" s="6">
+      <c r="M32" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
         <v>3.3</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="11">
         <v>3.3</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q32" s="6">
-        <v>1</v>
-      </c>
-      <c r="R32" s="6" t="s">
+      <c r="Q32" s="11">
+        <v>1</v>
+      </c>
+      <c r="R32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T32" s="6" t="s">
+      <c r="T32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="U32" s="6" t="s">
+      <c r="U32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="V32" s="6"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>14</v>
       </c>
@@ -4103,7 +4107,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>14</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>14</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD202F0-26F9-4D2D-B908-CBA76D82C946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142C450-2858-45EA-9963-39F0A640704C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="212">
   <si>
     <t>##var</t>
   </si>
@@ -744,9 +755,6 @@
     <t>Tower8</t>
   </si>
   <si>
-    <t>Skill_TowerDragon1</t>
-  </si>
-  <si>
     <t>Skill_TowerDragon2</t>
   </si>
   <si>
@@ -793,6 +801,38 @@
   </si>
   <si>
     <t>ResUnit_Observer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_SeedHeal1</t>
+  </si>
+  <si>
+    <r>
+      <t>Skill_TowerDragon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_PlayerCircle3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1276,37 +1316,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" customWidth="1"/>
-    <col min="14" max="16" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="38.44140625" customWidth="1"/>
+    <col min="15" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="39" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="39" customWidth="1"/>
-    <col min="22" max="22" width="75.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="75.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1424,7 @@
       <c r="AL1"/>
       <c r="AM1"/>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1467,7 @@
       <c r="AL2"/>
       <c r="AM2"/>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1503,7 +1544,7 @@
       <c r="AL3"/>
       <c r="AM3"/>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1589,7 @@
       <c r="AL4"/>
       <c r="AM4"/>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1666,7 @@
       <c r="AL5"/>
       <c r="AM5"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +1732,7 @@
       </c>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1703,14 +1744,14 @@
         <v>Unit_SceneEffectNone</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f t="shared" ref="E7:E44" si="1">"Text_Key_Name_"&amp;D7</f>
+        <f t="shared" ref="E7:E45" si="1">"Text_Key_Name_"&amp;D7</f>
         <v>Text_Key_Name_Unit_SceneEffectNone</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="10" t="str">
-        <f t="shared" ref="G7:G44" si="2">"Text_Key_Desc_"&amp;D7</f>
+        <f t="shared" ref="G7:G45" si="2">"Text_Key_Desc_"&amp;D7</f>
         <v>Text_Key_Desc_Unit_SceneEffectNone</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1723,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6">
         <v>400</v>
@@ -1757,7 +1798,7 @@
       </c>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1821,7 +1862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1892,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>400</v>
@@ -1887,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +1958,7 @@
         <v>83</v>
       </c>
       <c r="K10" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6">
         <v>400</v>
@@ -1951,7 +1992,7 @@
       </c>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K11" s="6">
         <v>10</v>
@@ -2017,7 +2058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
@@ -2049,7 +2090,7 @@
         <v>105</v>
       </c>
       <c r="K12" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6">
         <v>400</v>
@@ -2058,7 +2099,8 @@
         <v>1</v>
       </c>
       <c r="N12" s="6">
-        <v>2</v>
+        <f>1.631+0.699</f>
+        <v>2.33</v>
       </c>
       <c r="O12" s="6">
         <v>2</v>
@@ -2085,7 +2127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2159,7 @@
         <v>106</v>
       </c>
       <c r="K13" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" s="6">
         <v>400</v>
@@ -2126,7 +2168,8 @@
         <v>1</v>
       </c>
       <c r="N13" s="6">
-        <v>2</v>
+        <f>2.297+0.378</f>
+        <v>2.6750000000000003</v>
       </c>
       <c r="O13" s="6">
         <v>2</v>
@@ -2153,7 +2196,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2228,7 @@
         <v>107</v>
       </c>
       <c r="K14" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
         <v>400</v>
@@ -2194,7 +2237,8 @@
         <v>1</v>
       </c>
       <c r="N14" s="6">
-        <v>2</v>
+        <f>2.735+0.456</f>
+        <v>3.1909999999999998</v>
       </c>
       <c r="O14" s="6">
         <v>2</v>
@@ -2221,7 +2265,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2297,7 @@
         <v>109</v>
       </c>
       <c r="K15" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
         <v>400</v>
@@ -2262,7 +2306,8 @@
         <v>1</v>
       </c>
       <c r="N15" s="6">
-        <v>2</v>
+        <f>1.714+0.539</f>
+        <v>2.2530000000000001</v>
       </c>
       <c r="O15" s="6">
         <v>2</v>
@@ -2289,7 +2334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2366,7 @@
         <v>110</v>
       </c>
       <c r="K16" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L16" s="6">
         <v>400</v>
@@ -2330,7 +2375,8 @@
         <v>1</v>
       </c>
       <c r="N16" s="6">
-        <v>2</v>
+        <f>1.818+0.662</f>
+        <v>2.48</v>
       </c>
       <c r="O16" s="6">
         <v>2</v>
@@ -2357,7 +2403,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2389,7 +2435,7 @@
         <v>111</v>
       </c>
       <c r="K17" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
         <v>400</v>
@@ -2398,7 +2444,8 @@
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <v>2</v>
+        <f>2.16+0.74</f>
+        <v>2.9000000000000004</v>
       </c>
       <c r="O17" s="6">
         <v>2</v>
@@ -2425,7 +2472,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2504,7 @@
         <v>117</v>
       </c>
       <c r="K18" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" s="6">
         <v>400</v>
@@ -2466,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="6">
-        <v>2</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="O18" s="6">
         <v>2</v>
@@ -2493,7 +2540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2525,7 +2572,7 @@
         <v>118</v>
       </c>
       <c r="K19" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L19" s="6">
         <v>400</v>
@@ -2534,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="6">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="O19" s="6">
         <v>2</v>
@@ -2561,7 +2608,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
@@ -2593,7 +2640,7 @@
         <v>119</v>
       </c>
       <c r="K20" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6">
         <v>400</v>
@@ -2602,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="6">
-        <v>2</v>
+        <v>1.401</v>
       </c>
       <c r="O20" s="6">
         <v>2</v>
@@ -2629,7 +2676,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
@@ -2661,7 +2708,7 @@
         <v>122</v>
       </c>
       <c r="K21" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" s="6">
         <v>400</v>
@@ -2697,7 +2744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2776,7 @@
         <v>123</v>
       </c>
       <c r="K22" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22" s="6">
         <v>400</v>
@@ -2765,7 +2812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
@@ -2797,7 +2844,7 @@
         <v>124</v>
       </c>
       <c r="K23" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6">
         <v>400</v>
@@ -2830,10 +2877,10 @@
         <v>90</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +2954,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="11" t="str">
-        <f t="shared" ref="D25:D44" si="17">B25&amp;"_"&amp;C25</f>
+        <f t="shared" ref="D25:D45" si="17">B25&amp;"_"&amp;C25</f>
         <v>Unit_Monster2</v>
       </c>
       <c r="E25" s="11" t="str">
@@ -2965,7 +3012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>14</v>
       </c>
@@ -3031,7 +3078,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>14</v>
       </c>
@@ -3097,7 +3144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
@@ -3163,7 +3210,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>14</v>
       </c>
@@ -3229,7 +3276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
@@ -3295,7 +3342,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>14</v>
       </c>
@@ -3361,7 +3408,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>14</v>
       </c>
@@ -3427,820 +3474,889 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="2:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="11" t="str">
+        <f>B33&amp;"_"&amp;C33</f>
+        <v>Unit_Monster10</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f t="shared" ref="E33" si="19">"Text_Key_Name_"&amp;D33</f>
+        <v>Text_Key_Name_Unit_Monster10</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="13" t="str">
+        <f t="shared" ref="G33" si="20">"Text_Key_Desc_"&amp;D33</f>
+        <v>Text_Key_Desc_Unit_Monster10</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="11" t="str">
+        <f t="shared" ref="J33" si="21">"ResUnit_"&amp;C33</f>
+        <v>ResUnit_Monster10</v>
+      </c>
+      <c r="K33" s="11">
+        <v>3</v>
+      </c>
+      <c r="L33" s="11">
+        <v>400</v>
+      </c>
+      <c r="M33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>1</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
         <v>175</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerDragon1</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="E34" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerDragon1</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="10" t="str">
+      <c r="G34" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerDragon1</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I33" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I34" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" t="s">
         <v>163</v>
       </c>
-      <c r="K33" s="6">
-        <v>6</v>
-      </c>
-      <c r="L33" s="6">
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
         <v>400</v>
       </c>
-      <c r="M33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" s="6">
+      <c r="M34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1.244</v>
+      </c>
+      <c r="O34" s="6">
         <v>2</v>
       </c>
-      <c r="O33" s="6">
-        <v>2</v>
-      </c>
-      <c r="P33" s="6">
+      <c r="P34" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q33" s="6">
-        <v>1</v>
-      </c>
-      <c r="R33" s="6" t="s">
+      <c r="Q34" s="6">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
+      <c r="V34" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>176</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerDragon2</v>
       </c>
-      <c r="E34" s="6" t="str">
+      <c r="E35" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerDragon2</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="10" t="str">
+      <c r="G35" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerDragon2</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I34" t="s">
-        <v>203</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
         <v>164</v>
       </c>
-      <c r="K34" s="6">
-        <v>6</v>
-      </c>
-      <c r="L34" s="6">
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
         <v>400</v>
       </c>
-      <c r="M34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" s="6">
+      <c r="M35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1.845</v>
+      </c>
+      <c r="O35" s="6">
         <v>2</v>
       </c>
-      <c r="O34" s="6">
-        <v>2</v>
-      </c>
-      <c r="P34" s="6">
+      <c r="P35" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q34" s="6">
-        <v>1</v>
-      </c>
-      <c r="R34" s="6" t="s">
+      <c r="Q35" s="6">
+        <v>1</v>
+      </c>
+      <c r="R35" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="S35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T34" s="6" t="s">
+      <c r="T35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U34" s="6" t="s">
+      <c r="U35" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
+      <c r="V35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>177</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerDragon3</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="E36" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerDragon3</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="10" t="str">
+      <c r="G36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerDragon3</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I35" t="s">
-        <v>203</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" t="s">
         <v>165</v>
       </c>
-      <c r="K35" s="6">
-        <v>6</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
         <v>400</v>
       </c>
-      <c r="M35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" s="6">
+      <c r="M36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="O36" s="6">
         <v>2</v>
       </c>
-      <c r="O35" s="6">
-        <v>2</v>
-      </c>
-      <c r="P35" s="6">
+      <c r="P36" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q35" s="6">
-        <v>1</v>
-      </c>
-      <c r="R35" s="6" t="s">
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="S35" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T35" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U35" s="6" t="s">
+      <c r="U36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
+      <c r="V36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>178</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerElec1</v>
       </c>
-      <c r="E36" s="6" t="str">
+      <c r="E37" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerElec1</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="10" t="str">
+      <c r="G37" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerElec1</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I37" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" t="s">
         <v>166</v>
       </c>
-      <c r="K36" s="6">
-        <v>6</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
         <v>400</v>
       </c>
-      <c r="M36" s="6" t="b">
+      <c r="M37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N37" s="6">
         <v>2</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O37" s="6">
         <v>2</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P37" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q36" s="6">
-        <v>1</v>
-      </c>
-      <c r="R36" s="6" t="s">
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="S37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T36" s="6" t="s">
+      <c r="T37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U36" s="6" t="s">
+      <c r="U37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+      <c r="V37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>179</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerElec2</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="E38" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerElec2</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="10" t="str">
+      <c r="G38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerElec2</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H38" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J38" t="s">
         <v>167</v>
       </c>
-      <c r="K37" s="6">
-        <v>6</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
         <v>400</v>
       </c>
-      <c r="M37" s="6" t="b">
+      <c r="M38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N38" s="6">
         <v>2</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O38" s="6">
         <v>2</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P38" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q37" s="6">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6" t="s">
+      <c r="Q38" s="6">
+        <v>1</v>
+      </c>
+      <c r="R38" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="S37" s="6" t="s">
+      <c r="S38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T37" s="6" t="s">
+      <c r="T38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U37" s="6" t="s">
+      <c r="U38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
+      <c r="V38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>180</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerElec3</v>
       </c>
-      <c r="E38" s="6" t="str">
+      <c r="E39" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerElec3</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="10" t="str">
+      <c r="G39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerElec3</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H39" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" t="s">
         <v>168</v>
       </c>
-      <c r="K38" s="6">
-        <v>6</v>
-      </c>
-      <c r="L38" s="6">
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
         <v>400</v>
       </c>
-      <c r="M38" s="6" t="b">
+      <c r="M39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <v>2</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O39" s="6">
         <v>2</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P39" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q38" s="6">
-        <v>1</v>
-      </c>
-      <c r="R38" s="6" t="s">
+      <c r="Q39" s="6">
+        <v>1</v>
+      </c>
+      <c r="R39" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="S39" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T38" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U38" s="6" t="s">
+      <c r="U39" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
+      <c r="V39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>181</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerIce1</v>
       </c>
-      <c r="E39" s="6" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerIce1</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="10" t="str">
+      <c r="G40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerIce1</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I40" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J40" t="s">
         <v>169</v>
       </c>
-      <c r="K39" s="6">
-        <v>6</v>
-      </c>
-      <c r="L39" s="6">
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
         <v>400</v>
       </c>
-      <c r="M39" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" s="6">
+      <c r="M40" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" s="6">
+        <v>2.6520000000000001</v>
+      </c>
+      <c r="O40" s="6">
         <v>2</v>
       </c>
-      <c r="O39" s="6">
-        <v>2</v>
-      </c>
-      <c r="P39" s="6">
+      <c r="P40" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q39" s="6">
-        <v>1</v>
-      </c>
-      <c r="R39" s="6" t="s">
+      <c r="Q40" s="6">
+        <v>1</v>
+      </c>
+      <c r="R40" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="S40" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U39" s="6" t="s">
+      <c r="U40" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="6" t="s">
+      <c r="V40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>182</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerIce2</v>
       </c>
-      <c r="E40" s="6" t="str">
+      <c r="E41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerIce2</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="10" t="str">
+      <c r="G41" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerIce2</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J41" t="s">
         <v>170</v>
       </c>
-      <c r="K40" s="6">
-        <v>6</v>
-      </c>
-      <c r="L40" s="6">
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
         <v>400</v>
       </c>
-      <c r="M40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N40" s="6">
+      <c r="M41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="O41" s="6">
         <v>2</v>
       </c>
-      <c r="O40" s="6">
-        <v>2</v>
-      </c>
-      <c r="P40" s="6">
+      <c r="P41" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q40" s="6">
-        <v>1</v>
-      </c>
-      <c r="R40" s="6" t="s">
+      <c r="Q41" s="6">
+        <v>1</v>
+      </c>
+      <c r="R41" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="S41" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T40" s="6" t="s">
+      <c r="T41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U40" s="6" t="s">
+      <c r="U41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="6" t="s">
+      <c r="V41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>183</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerIce3</v>
       </c>
-      <c r="E41" s="6" t="str">
+      <c r="E42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerIce3</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="10" t="str">
+      <c r="G42" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerIce3</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I42" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J42" t="s">
         <v>171</v>
       </c>
-      <c r="K41" s="6">
-        <v>6</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
         <v>400</v>
       </c>
-      <c r="M41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" s="6">
+      <c r="M42" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="6">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="O42" s="6">
         <v>2</v>
       </c>
-      <c r="O41" s="6">
-        <v>2</v>
-      </c>
-      <c r="P41" s="6">
+      <c r="P42" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q41" s="6">
-        <v>1</v>
-      </c>
-      <c r="R41" s="6" t="s">
+      <c r="Q42" s="6">
+        <v>1</v>
+      </c>
+      <c r="R42" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="S42" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U41" s="6" t="s">
+      <c r="U42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="s">
+      <c r="V42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>184</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerTime1</v>
       </c>
-      <c r="E42" s="6" t="str">
+      <c r="E43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerTime1</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G42" s="10" t="str">
+      <c r="G43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerTime1</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="I43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J43" t="s">
         <v>172</v>
       </c>
-      <c r="K42" s="6">
-        <v>6</v>
-      </c>
-      <c r="L42" s="6">
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
         <v>400</v>
       </c>
-      <c r="M42" s="6" t="b">
+      <c r="M43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N43" s="6">
         <v>2</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O43" s="6">
         <v>2</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P43" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q42" s="6">
-        <v>1</v>
-      </c>
-      <c r="R42" s="6" t="s">
+      <c r="Q43" s="6">
+        <v>1</v>
+      </c>
+      <c r="R43" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S42" s="6" t="s">
+      <c r="S43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T42" s="6" t="s">
+      <c r="T43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U42" s="6" t="s">
+      <c r="U43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="6" t="s">
+      <c r="V43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>185</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerTime2</v>
       </c>
-      <c r="E43" s="6" t="str">
+      <c r="E44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerTime2</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="10" t="str">
+      <c r="G44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerTime2</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I44" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" t="s">
         <v>173</v>
       </c>
-      <c r="K43" s="6">
-        <v>6</v>
-      </c>
-      <c r="L43" s="6">
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
         <v>400</v>
       </c>
-      <c r="M43" s="6" t="b">
+      <c r="M44" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N44" s="6">
         <v>2</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O44" s="6">
         <v>2</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P44" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q43" s="6">
-        <v>1</v>
-      </c>
-      <c r="R43" s="6" t="s">
+      <c r="Q44" s="6">
+        <v>1</v>
+      </c>
+      <c r="R44" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S43" s="6" t="s">
+      <c r="S44" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T43" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U43" s="6" t="s">
+      <c r="U44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
+      <c r="V44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>186</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="17"/>
         <v>Unit_TowerTime3</v>
       </c>
-      <c r="E44" s="6" t="str">
+      <c r="E45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Text_Key_Name_Unit_TowerTime3</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="10" t="str">
+      <c r="G45" s="10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Desc_Unit_TowerTime3</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I45" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" t="s">
         <v>174</v>
       </c>
-      <c r="K44" s="6">
-        <v>6</v>
-      </c>
-      <c r="L44" s="6">
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
         <v>400</v>
       </c>
-      <c r="M44" s="6" t="b">
+      <c r="M45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N45" s="6">
         <v>2</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O45" s="6">
         <v>2</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P45" s="6">
         <v>0.5</v>
       </c>
-      <c r="Q44" s="6">
-        <v>1</v>
-      </c>
-      <c r="R44" s="6" t="s">
+      <c r="Q45" s="6">
+        <v>1</v>
+      </c>
+      <c r="R45" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="S44" s="6" t="s">
+      <c r="S45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="U44" s="6" t="s">
+      <c r="U45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="V44" t="s">
-        <v>202</v>
+      <c r="V45" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357CD9C5-A653-4DDC-BB03-61E418DF6515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756C924-EDE5-475F-B293-C76AFD6E0F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1378">
   <si>
     <t>##var</t>
   </si>
@@ -3430,9 +3430,6 @@
     <t>Skill_Monster_Infinite_19_1_Dan,NormalAttack</t>
   </si>
   <si>
-    <t>Skill_Monster_Infinite_19_3_ZhongZi,NormalAttack</t>
-  </si>
-  <si>
     <t>Skill_Monster_Infinite_20_1_Dan,NormalAttack</t>
   </si>
   <si>
@@ -3734,9 +3731,6 @@
   </si>
   <si>
     <t>Skill_TestTowerIce3,NormalAttack</t>
-  </si>
-  <si>
-    <t>Skill_TestTowerTime1,NormalAttack</t>
   </si>
   <si>
     <t>Skill_TestTowerTime2,NormalAttack</t>
@@ -3914,6 +3908,392 @@
   </si>
   <si>
     <t>Skill_TowerBomb3,NormalAttack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_1_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物1_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_1_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_2_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物2_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_2_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物2_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_2_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_3_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物3_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_3_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物3_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_3_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_4_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物4_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_4_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物4_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_4_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_5_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物5_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_5_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物5_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_5_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_6_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物6_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_6_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物6_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_6_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_7_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物7_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_7_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物7_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_7_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_8_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物8_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_8_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物8_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_8_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_9_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物9_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_9_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物9_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_9_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_10_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物10_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_10_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物10_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_10_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_11_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物11_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_11_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物11_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_11_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_12_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物12_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_12_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_13_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物13_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_13_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物13_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_13_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_14_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物14_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_14_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物14_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_14_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_15_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物15_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_15_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物15_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_15_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物15_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_15_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_16_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物16_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_16_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物16_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_16_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_17_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物17_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_17_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物17_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_17_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_18_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物18_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_18_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物18_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_18_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物18_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_18_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_19_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物19_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_19_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物19_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_19_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物19_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_19_3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_20_1</t>
+  </si>
+  <si>
+    <t>线下模式怪物20_1</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_1</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_20_2</t>
+  </si>
+  <si>
+    <t>线下模式怪物20_2</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_2</t>
+  </si>
+  <si>
+    <t>Unit_Monster_Offline_20_3</t>
+  </si>
+  <si>
+    <t>线下模式怪物20_3</t>
+  </si>
+  <si>
+    <t>Monster_Offline_20_3</t>
+  </si>
+  <si>
+    <t>Skill_Monster_Infinite_19_3_ZhongZi,NormalAttack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_TestTowerTime1,NormalAttack</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4382,11 +4762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG409"/>
+  <dimension ref="A1:AG452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G246" sqref="G246:G248"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P425" sqref="P425:P453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4400,7 +4780,7 @@
     <col min="13" max="13" width="17.25" style="3" customWidth="1"/>
     <col min="14" max="14" width="18" style="3" customWidth="1"/>
     <col min="15" max="15" width="20.125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="37.625" style="3" customWidth="1"/>
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -4449,7 +4829,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -4551,7 +4931,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -4677,10 +5057,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>207</v>
@@ -4707,7 +5087,7 @@
         <v>0.5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>42</v>
@@ -4727,10 +5107,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>194</v>
@@ -4757,7 +5137,7 @@
         <v>1.25</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>42</v>
@@ -4777,10 +5157,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>207</v>
@@ -4807,7 +5187,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>42</v>
@@ -4827,10 +5207,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>194</v>
@@ -4857,7 +5237,7 @@
         <v>1.25</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>42</v>
@@ -4877,10 +5257,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>196</v>
@@ -4907,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>42</v>
@@ -13520,8 +13900,8 @@
       <c r="O176" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P176" s="3" t="s">
-        <v>1117</v>
+      <c r="P176" s="10" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.2">
@@ -13568,7 +13948,7 @@
         <v>44</v>
       </c>
       <c r="P177" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.2">
@@ -13615,7 +13995,7 @@
         <v>44</v>
       </c>
       <c r="P178" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.2">
@@ -13662,7 +14042,7 @@
         <v>44</v>
       </c>
       <c r="P179" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="180" spans="2:16" x14ac:dyDescent="0.2">
@@ -13709,7 +14089,7 @@
         <v>44</v>
       </c>
       <c r="P180" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="181" spans="2:16" x14ac:dyDescent="0.2">
@@ -14768,7 +15148,7 @@
         <v>44</v>
       </c>
       <c r="P207" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="208" spans="2:16" x14ac:dyDescent="0.2">
@@ -14815,7 +15195,7 @@
         <v>44</v>
       </c>
       <c r="P208" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="209" spans="2:16" x14ac:dyDescent="0.2">
@@ -14862,7 +15242,7 @@
         <v>44</v>
       </c>
       <c r="P209" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="210" spans="2:16" x14ac:dyDescent="0.2">
@@ -14909,7 +15289,7 @@
         <v>44</v>
       </c>
       <c r="P210" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="211" spans="2:16" x14ac:dyDescent="0.2">
@@ -14956,7 +15336,7 @@
         <v>44</v>
       </c>
       <c r="P211" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="212" spans="2:16" x14ac:dyDescent="0.2">
@@ -15003,7 +15383,7 @@
         <v>44</v>
       </c>
       <c r="P212" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.2">
@@ -15050,7 +15430,7 @@
         <v>44</v>
       </c>
       <c r="P213" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="214" spans="2:16" x14ac:dyDescent="0.2">
@@ -15097,7 +15477,7 @@
         <v>44</v>
       </c>
       <c r="P214" s="10" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="216" spans="2:16" x14ac:dyDescent="0.2">
@@ -15144,7 +15524,7 @@
         <v>44</v>
       </c>
       <c r="P216" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="217" spans="2:16" x14ac:dyDescent="0.2">
@@ -15191,7 +15571,7 @@
         <v>44</v>
       </c>
       <c r="P217" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="218" spans="2:16" x14ac:dyDescent="0.2">
@@ -15238,7 +15618,7 @@
         <v>44</v>
       </c>
       <c r="P218" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="219" spans="2:16" x14ac:dyDescent="0.2">
@@ -15285,7 +15665,7 @@
         <v>44</v>
       </c>
       <c r="P219" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.2">
@@ -15332,7 +15712,7 @@
         <v>44</v>
       </c>
       <c r="P220" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="221" spans="2:16" x14ac:dyDescent="0.2">
@@ -15379,7 +15759,7 @@
         <v>44</v>
       </c>
       <c r="P221" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.2">
@@ -15426,7 +15806,7 @@
         <v>44</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="223" spans="2:16" x14ac:dyDescent="0.2">
@@ -15473,7 +15853,7 @@
         <v>44</v>
       </c>
       <c r="P223" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="224" spans="2:16" x14ac:dyDescent="0.2">
@@ -15520,7 +15900,7 @@
         <v>44</v>
       </c>
       <c r="P224" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="225" spans="2:16" x14ac:dyDescent="0.2">
@@ -15567,7 +15947,7 @@
         <v>44</v>
       </c>
       <c r="P225" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="226" spans="2:16" x14ac:dyDescent="0.2">
@@ -15614,7 +15994,7 @@
         <v>44</v>
       </c>
       <c r="P226" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="227" spans="2:16" x14ac:dyDescent="0.2">
@@ -15661,7 +16041,7 @@
         <v>44</v>
       </c>
       <c r="P227" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="228" spans="2:16" x14ac:dyDescent="0.2">
@@ -15708,7 +16088,7 @@
         <v>44</v>
       </c>
       <c r="P228" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="229" spans="2:16" x14ac:dyDescent="0.2">
@@ -15755,7 +16135,7 @@
         <v>44</v>
       </c>
       <c r="P229" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="230" spans="2:16" x14ac:dyDescent="0.2">
@@ -15802,7 +16182,7 @@
         <v>44</v>
       </c>
       <c r="P230" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="231" spans="2:16" x14ac:dyDescent="0.2">
@@ -15849,7 +16229,7 @@
         <v>44</v>
       </c>
       <c r="P231" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="232" spans="2:16" x14ac:dyDescent="0.2">
@@ -15896,7 +16276,7 @@
         <v>44</v>
       </c>
       <c r="P232" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="233" spans="2:16" x14ac:dyDescent="0.2">
@@ -15943,7 +16323,7 @@
         <v>44</v>
       </c>
       <c r="P233" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="234" spans="2:16" x14ac:dyDescent="0.2">
@@ -15990,7 +16370,7 @@
         <v>44</v>
       </c>
       <c r="P234" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="235" spans="2:16" x14ac:dyDescent="0.2">
@@ -16037,7 +16417,7 @@
         <v>44</v>
       </c>
       <c r="P235" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="236" spans="2:16" x14ac:dyDescent="0.2">
@@ -16084,7 +16464,7 @@
         <v>44</v>
       </c>
       <c r="P236" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="237" spans="2:16" x14ac:dyDescent="0.2">
@@ -16131,7 +16511,7 @@
         <v>44</v>
       </c>
       <c r="P237" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="238" spans="2:16" x14ac:dyDescent="0.2">
@@ -16178,7 +16558,7 @@
         <v>44</v>
       </c>
       <c r="P238" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="239" spans="2:16" x14ac:dyDescent="0.2">
@@ -16225,7 +16605,7 @@
         <v>44</v>
       </c>
       <c r="P239" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="240" spans="2:16" x14ac:dyDescent="0.2">
@@ -16272,7 +16652,7 @@
         <v>44</v>
       </c>
       <c r="P240" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="241" spans="2:16" x14ac:dyDescent="0.2">
@@ -16319,7 +16699,7 @@
         <v>44</v>
       </c>
       <c r="P241" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="242" spans="2:16" x14ac:dyDescent="0.2">
@@ -16366,7 +16746,7 @@
         <v>44</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="243" spans="2:16" x14ac:dyDescent="0.2">
@@ -16413,7 +16793,7 @@
         <v>44</v>
       </c>
       <c r="P243" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="244" spans="2:16" x14ac:dyDescent="0.2">
@@ -16460,7 +16840,7 @@
         <v>44</v>
       </c>
       <c r="P244" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="245" spans="2:16" x14ac:dyDescent="0.2">
@@ -16507,12 +16887,12 @@
         <v>44</v>
       </c>
       <c r="P245" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="246" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B246" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>104</v>
@@ -16554,7 +16934,7 @@
         <v>44</v>
       </c>
       <c r="P246" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="247" spans="2:16" x14ac:dyDescent="0.2">
@@ -16601,7 +16981,7 @@
         <v>44</v>
       </c>
       <c r="P247" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="248" spans="2:16" x14ac:dyDescent="0.2">
@@ -16648,7 +17028,7 @@
         <v>44</v>
       </c>
       <c r="P248" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="249" spans="2:16" x14ac:dyDescent="0.2">
@@ -16695,7 +17075,7 @@
         <v>44</v>
       </c>
       <c r="P249" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="250" spans="2:16" x14ac:dyDescent="0.2">
@@ -16742,7 +17122,7 @@
         <v>44</v>
       </c>
       <c r="P250" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="251" spans="2:16" x14ac:dyDescent="0.2">
@@ -16789,7 +17169,7 @@
         <v>44</v>
       </c>
       <c r="P251" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="252" spans="2:16" x14ac:dyDescent="0.2">
@@ -16836,7 +17216,7 @@
         <v>44</v>
       </c>
       <c r="P252" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="253" spans="2:16" x14ac:dyDescent="0.2">
@@ -16883,7 +17263,7 @@
         <v>44</v>
       </c>
       <c r="P253" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="254" spans="2:16" x14ac:dyDescent="0.2">
@@ -16930,7 +17310,7 @@
         <v>44</v>
       </c>
       <c r="P254" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="255" spans="2:16" x14ac:dyDescent="0.2">
@@ -16977,7 +17357,7 @@
         <v>44</v>
       </c>
       <c r="P255" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="256" spans="2:16" x14ac:dyDescent="0.2">
@@ -17024,7 +17404,7 @@
         <v>44</v>
       </c>
       <c r="P256" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="257" spans="2:16" x14ac:dyDescent="0.2">
@@ -17071,7 +17451,7 @@
         <v>44</v>
       </c>
       <c r="P257" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="258" spans="2:16" x14ac:dyDescent="0.2">
@@ -17118,7 +17498,7 @@
         <v>44</v>
       </c>
       <c r="P258" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="259" spans="2:16" x14ac:dyDescent="0.2">
@@ -17165,7 +17545,7 @@
         <v>44</v>
       </c>
       <c r="P259" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="260" spans="2:16" x14ac:dyDescent="0.2">
@@ -17212,7 +17592,7 @@
         <v>44</v>
       </c>
       <c r="P260" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="261" spans="2:16" x14ac:dyDescent="0.2">
@@ -17259,7 +17639,7 @@
         <v>44</v>
       </c>
       <c r="P261" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="262" spans="2:16" x14ac:dyDescent="0.2">
@@ -17306,7 +17686,7 @@
         <v>44</v>
       </c>
       <c r="P262" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="263" spans="2:16" x14ac:dyDescent="0.2">
@@ -17353,7 +17733,7 @@
         <v>44</v>
       </c>
       <c r="P263" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="264" spans="2:16" x14ac:dyDescent="0.2">
@@ -17400,7 +17780,7 @@
         <v>44</v>
       </c>
       <c r="P264" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="265" spans="2:16" x14ac:dyDescent="0.2">
@@ -17447,7 +17827,7 @@
         <v>44</v>
       </c>
       <c r="P265" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="266" spans="2:16" x14ac:dyDescent="0.2">
@@ -17494,7 +17874,7 @@
         <v>44</v>
       </c>
       <c r="P266" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.2">
@@ -17541,7 +17921,7 @@
         <v>44</v>
       </c>
       <c r="P267" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.2">
@@ -17588,7 +17968,7 @@
         <v>44</v>
       </c>
       <c r="P268" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.2">
@@ -17635,7 +18015,7 @@
         <v>44</v>
       </c>
       <c r="P269" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.2">
@@ -17682,7 +18062,7 @@
         <v>44</v>
       </c>
       <c r="P270" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.2">
@@ -17729,7 +18109,7 @@
         <v>44</v>
       </c>
       <c r="P271" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.2">
@@ -17776,7 +18156,7 @@
         <v>44</v>
       </c>
       <c r="P272" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.2">
@@ -17823,7 +18203,7 @@
         <v>44</v>
       </c>
       <c r="P273" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="274" spans="2:16" x14ac:dyDescent="0.2">
@@ -17870,7 +18250,7 @@
         <v>44</v>
       </c>
       <c r="P274" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="275" spans="2:16" x14ac:dyDescent="0.2">
@@ -17917,7 +18297,7 @@
         <v>44</v>
       </c>
       <c r="P275" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="276" spans="2:16" x14ac:dyDescent="0.2">
@@ -17964,7 +18344,7 @@
         <v>44</v>
       </c>
       <c r="P276" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="277" spans="2:16" x14ac:dyDescent="0.2">
@@ -18011,7 +18391,7 @@
         <v>44</v>
       </c>
       <c r="P277" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="278" spans="2:16" x14ac:dyDescent="0.2">
@@ -18058,7 +18438,7 @@
         <v>44</v>
       </c>
       <c r="P278" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="279" spans="2:16" x14ac:dyDescent="0.2">
@@ -18105,7 +18485,7 @@
         <v>44</v>
       </c>
       <c r="P279" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="280" spans="2:16" x14ac:dyDescent="0.2">
@@ -18152,7 +18532,7 @@
         <v>44</v>
       </c>
       <c r="P280" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="281" spans="2:16" x14ac:dyDescent="0.2">
@@ -18199,7 +18579,7 @@
         <v>44</v>
       </c>
       <c r="P281" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="282" spans="2:16" x14ac:dyDescent="0.2">
@@ -18246,7 +18626,7 @@
         <v>44</v>
       </c>
       <c r="P282" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="283" spans="2:16" x14ac:dyDescent="0.2">
@@ -18293,7 +18673,7 @@
         <v>44</v>
       </c>
       <c r="P283" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="284" spans="2:16" x14ac:dyDescent="0.2">
@@ -18340,7 +18720,7 @@
         <v>44</v>
       </c>
       <c r="P284" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="285" spans="2:16" x14ac:dyDescent="0.2">
@@ -18387,7 +18767,7 @@
         <v>44</v>
       </c>
       <c r="P285" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="286" spans="2:16" x14ac:dyDescent="0.2">
@@ -18434,7 +18814,7 @@
         <v>44</v>
       </c>
       <c r="P286" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="287" spans="2:16" x14ac:dyDescent="0.2">
@@ -18481,18 +18861,18 @@
         <v>44</v>
       </c>
       <c r="P287" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="288" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B288" s="11" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E288" s="3">
         <v>0</v>
@@ -18516,7 +18896,7 @@
         <v>1</v>
       </c>
       <c r="L288" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M288" s="3" t="s">
         <v>48</v>
@@ -18528,18 +18908,18 @@
         <v>44</v>
       </c>
       <c r="P288" s="10" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="289" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B289" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C289" s="10" t="s">
         <v>1242</v>
       </c>
-      <c r="C289" s="10" t="s">
+      <c r="D289" s="10" t="s">
         <v>1244</v>
-      </c>
-      <c r="D289" s="10" t="s">
-        <v>1246</v>
       </c>
       <c r="E289" s="3">
         <v>0</v>
@@ -18563,7 +18943,7 @@
         <v>1</v>
       </c>
       <c r="L289" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M289" s="3" t="s">
         <v>48</v>
@@ -18575,18 +18955,18 @@
         <v>44</v>
       </c>
       <c r="P289" s="10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="290" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B290" s="11" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E290" s="3">
         <v>0</v>
@@ -18610,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="L290" s="10" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M290" s="3" t="s">
         <v>48</v>
@@ -18622,7 +19002,7 @@
         <v>44</v>
       </c>
       <c r="P290" s="10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="292" spans="2:16" x14ac:dyDescent="0.2">
@@ -18669,7 +19049,7 @@
         <v>44</v>
       </c>
       <c r="P292" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="293" spans="2:16" x14ac:dyDescent="0.2">
@@ -19068,7 +19448,7 @@
         <v>44</v>
       </c>
       <c r="P301" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="302" spans="2:16" x14ac:dyDescent="0.2">
@@ -19686,7 +20066,7 @@
         <v>44</v>
       </c>
       <c r="P316" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="317" spans="2:16" x14ac:dyDescent="0.2">
@@ -20099,7 +20479,7 @@
         <v>44</v>
       </c>
       <c r="P326" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="327" spans="2:16" x14ac:dyDescent="0.2">
@@ -20512,7 +20892,7 @@
         <v>44</v>
       </c>
       <c r="P336" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="337" spans="2:16" x14ac:dyDescent="0.2">
@@ -20641,7 +21021,7 @@
         <v>44</v>
       </c>
       <c r="P340" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="341" spans="2:16" x14ac:dyDescent="0.2">
@@ -20688,7 +21068,7 @@
         <v>44</v>
       </c>
       <c r="P341" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="342" spans="2:16" x14ac:dyDescent="0.2">
@@ -20735,7 +21115,7 @@
         <v>44</v>
       </c>
       <c r="P342" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="343" spans="2:16" x14ac:dyDescent="0.2">
@@ -20782,7 +21162,7 @@
         <v>44</v>
       </c>
       <c r="P343" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="344" spans="2:16" x14ac:dyDescent="0.2">
@@ -20829,7 +21209,7 @@
         <v>44</v>
       </c>
       <c r="P344" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="345" spans="2:16" x14ac:dyDescent="0.2">
@@ -20876,7 +21256,7 @@
         <v>44</v>
       </c>
       <c r="P345" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="346" spans="2:16" x14ac:dyDescent="0.2">
@@ -20923,7 +21303,7 @@
         <v>44</v>
       </c>
       <c r="P346" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="347" spans="2:16" x14ac:dyDescent="0.2">
@@ -20970,7 +21350,7 @@
         <v>44</v>
       </c>
       <c r="P347" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="348" spans="2:16" x14ac:dyDescent="0.2">
@@ -21017,7 +21397,7 @@
         <v>44</v>
       </c>
       <c r="P348" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="349" spans="2:16" x14ac:dyDescent="0.2">
@@ -21064,7 +21444,7 @@
         <v>44</v>
       </c>
       <c r="P349" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="350" spans="2:16" x14ac:dyDescent="0.2">
@@ -21111,7 +21491,7 @@
         <v>44</v>
       </c>
       <c r="P350" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="351" spans="2:16" x14ac:dyDescent="0.2">
@@ -21158,7 +21538,7 @@
         <v>44</v>
       </c>
       <c r="P351" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="352" spans="2:16" x14ac:dyDescent="0.2">
@@ -21205,7 +21585,7 @@
         <v>44</v>
       </c>
       <c r="P352" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="353" spans="2:16" x14ac:dyDescent="0.2">
@@ -21252,7 +21632,7 @@
         <v>44</v>
       </c>
       <c r="P353" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="354" spans="2:16" x14ac:dyDescent="0.2">
@@ -21299,7 +21679,7 @@
         <v>44</v>
       </c>
       <c r="P354" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="355" spans="2:16" x14ac:dyDescent="0.2">
@@ -21346,7 +21726,7 @@
         <v>44</v>
       </c>
       <c r="P355" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="356" spans="2:16" x14ac:dyDescent="0.2">
@@ -21393,7 +21773,7 @@
         <v>44</v>
       </c>
       <c r="P356" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="357" spans="2:16" x14ac:dyDescent="0.2">
@@ -21440,7 +21820,7 @@
         <v>44</v>
       </c>
       <c r="P357" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="358" spans="2:16" x14ac:dyDescent="0.2">
@@ -21487,7 +21867,7 @@
         <v>44</v>
       </c>
       <c r="P358" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="359" spans="2:16" x14ac:dyDescent="0.2">
@@ -21534,7 +21914,7 @@
         <v>44</v>
       </c>
       <c r="P359" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="360" spans="2:16" x14ac:dyDescent="0.2">
@@ -21581,7 +21961,7 @@
         <v>44</v>
       </c>
       <c r="P360" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="361" spans="2:16" x14ac:dyDescent="0.2">
@@ -21627,8 +22007,8 @@
       <c r="O361" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P361" s="3" t="s">
-        <v>1219</v>
+      <c r="P361" s="10" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="362" spans="2:16" x14ac:dyDescent="0.2">
@@ -21675,7 +22055,7 @@
         <v>44</v>
       </c>
       <c r="P362" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="363" spans="2:16" x14ac:dyDescent="0.2">
@@ -21722,7 +22102,7 @@
         <v>44</v>
       </c>
       <c r="P363" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="365" spans="2:16" x14ac:dyDescent="0.2">
@@ -23160,7 +23540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="401" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B401" s="3" t="s">
         <v>362</v>
       </c>
@@ -23201,7 +23581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B402" s="3" t="s">
         <v>364</v>
       </c>
@@ -23242,7 +23622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="403" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B403" s="3" t="s">
         <v>366</v>
       </c>
@@ -23283,7 +23663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="404" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B404" s="3" t="s">
         <v>368</v>
       </c>
@@ -23324,7 +23704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="405" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B405" s="3" t="s">
         <v>370</v>
       </c>
@@ -23365,7 +23745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="406" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B406" s="3" t="s">
         <v>372</v>
       </c>
@@ -23406,7 +23786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="407" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B407" s="3" t="s">
         <v>374</v>
       </c>
@@ -23447,7 +23827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="408" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B408" s="3" t="s">
         <v>376</v>
       </c>
@@ -23488,7 +23868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="409" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B409" s="3" t="s">
         <v>378</v>
       </c>
@@ -23527,6 +23907,2163 @@
       </c>
       <c r="O409" s="3" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="411" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B411" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E411" s="3">
+        <v>3</v>
+      </c>
+      <c r="F411" s="3">
+        <v>400</v>
+      </c>
+      <c r="G411" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" s="3">
+        <v>1</v>
+      </c>
+      <c r="I411" s="3">
+        <v>1</v>
+      </c>
+      <c r="J411" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K411" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L411" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M411" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N411" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O411" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q411" s="3">
+        <v>1</v>
+      </c>
+      <c r="R411" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B412" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E412" s="3">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="F412" s="3">
+        <v>400</v>
+      </c>
+      <c r="G412" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" s="3">
+        <v>1</v>
+      </c>
+      <c r="I412" s="3">
+        <v>1</v>
+      </c>
+      <c r="J412" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K412" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L412" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M412" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N412" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O412" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q412" s="3">
+        <v>2</v>
+      </c>
+      <c r="R412" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B413" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E413" s="3">
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="F413" s="3">
+        <v>400</v>
+      </c>
+      <c r="G413" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" s="3">
+        <v>1</v>
+      </c>
+      <c r="I413" s="3">
+        <v>1</v>
+      </c>
+      <c r="J413" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K413" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L413" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M413" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N413" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O413" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q413" s="3">
+        <v>2</v>
+      </c>
+      <c r="R413" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B414" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E414" s="3">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="F414" s="3">
+        <v>400</v>
+      </c>
+      <c r="G414" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H414" s="3">
+        <v>1</v>
+      </c>
+      <c r="I414" s="3">
+        <v>1</v>
+      </c>
+      <c r="J414" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K414" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M414" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N414" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O414" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q414" s="3">
+        <v>3</v>
+      </c>
+      <c r="R414" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B415" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E415" s="3">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="F415" s="3">
+        <v>400</v>
+      </c>
+      <c r="G415" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H415" s="3">
+        <v>1</v>
+      </c>
+      <c r="I415" s="3">
+        <v>1</v>
+      </c>
+      <c r="J415" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K415" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L415" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M415" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O415" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q415" s="3">
+        <v>3</v>
+      </c>
+      <c r="R415" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B416" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E416" s="3">
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="F416" s="3">
+        <v>400</v>
+      </c>
+      <c r="G416" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H416" s="3">
+        <v>1</v>
+      </c>
+      <c r="I416" s="3">
+        <v>1</v>
+      </c>
+      <c r="J416" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K416" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L416" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M416" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N416" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O416" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q416" s="3">
+        <v>4</v>
+      </c>
+      <c r="R416" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B417" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E417" s="3">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="F417" s="3">
+        <v>400</v>
+      </c>
+      <c r="G417" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H417" s="3">
+        <v>1</v>
+      </c>
+      <c r="I417" s="3">
+        <v>1</v>
+      </c>
+      <c r="J417" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K417" s="3">
+        <v>1</v>
+      </c>
+      <c r="L417" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M417" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N417" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O417" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q417" s="3">
+        <v>4</v>
+      </c>
+      <c r="R417" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B418" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E418" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F418" s="3">
+        <v>400</v>
+      </c>
+      <c r="G418" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H418" s="3">
+        <v>1</v>
+      </c>
+      <c r="I418" s="3">
+        <v>1</v>
+      </c>
+      <c r="J418" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K418" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M418" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N418" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O418" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q418" s="3">
+        <v>5</v>
+      </c>
+      <c r="R418" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B419" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E419" s="3">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F419" s="3">
+        <v>400</v>
+      </c>
+      <c r="G419" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H419" s="3">
+        <v>1</v>
+      </c>
+      <c r="I419" s="3">
+        <v>1</v>
+      </c>
+      <c r="J419" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K419" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M419" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N419" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O419" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q419" s="3">
+        <v>5</v>
+      </c>
+      <c r="R419" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B420" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E420" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="F420" s="3">
+        <v>400</v>
+      </c>
+      <c r="G420" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H420" s="3">
+        <v>1</v>
+      </c>
+      <c r="I420" s="3">
+        <v>1</v>
+      </c>
+      <c r="J420" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K420" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M420" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N420" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q420" s="3">
+        <v>6</v>
+      </c>
+      <c r="R420" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B421" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E421" s="3">
+        <v>5.625</v>
+      </c>
+      <c r="F421" s="3">
+        <v>400</v>
+      </c>
+      <c r="G421" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H421" s="3">
+        <v>1</v>
+      </c>
+      <c r="I421" s="3">
+        <v>1</v>
+      </c>
+      <c r="J421" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K421" s="3">
+        <v>1</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M421" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N421" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O421" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q421" s="3">
+        <v>6</v>
+      </c>
+      <c r="R421" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B422" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E422" s="3">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="F422" s="3">
+        <v>400</v>
+      </c>
+      <c r="G422" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H422" s="3">
+        <v>1</v>
+      </c>
+      <c r="I422" s="3">
+        <v>1</v>
+      </c>
+      <c r="J422" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K422" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M422" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N422" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O422" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q422" s="3">
+        <v>7</v>
+      </c>
+      <c r="R422" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B423" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E423" s="3">
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="F423" s="3">
+        <v>400</v>
+      </c>
+      <c r="G423" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H423" s="3">
+        <v>1</v>
+      </c>
+      <c r="I423" s="3">
+        <v>1</v>
+      </c>
+      <c r="J423" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K423" s="3">
+        <v>1</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M423" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N423" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O423" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q423" s="3">
+        <v>7</v>
+      </c>
+      <c r="R423" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B424" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E424" s="3">
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="F424" s="3">
+        <v>400</v>
+      </c>
+      <c r="G424" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H424" s="3">
+        <v>1</v>
+      </c>
+      <c r="I424" s="3">
+        <v>1</v>
+      </c>
+      <c r="J424" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K424" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M424" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N424" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O424" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q424" s="3">
+        <v>8</v>
+      </c>
+      <c r="R424" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B425" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E425" s="3">
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="F425" s="3">
+        <v>400</v>
+      </c>
+      <c r="G425" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H425" s="3">
+        <v>1</v>
+      </c>
+      <c r="I425" s="3">
+        <v>1</v>
+      </c>
+      <c r="J425" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K425" s="3">
+        <v>1</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M425" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N425" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O425" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P425" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q425" s="3">
+        <v>8</v>
+      </c>
+      <c r="R425" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B426" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E426" s="3">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F426" s="3">
+        <v>400</v>
+      </c>
+      <c r="G426" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H426" s="3">
+        <v>1</v>
+      </c>
+      <c r="I426" s="3">
+        <v>1</v>
+      </c>
+      <c r="J426" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K426" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M426" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N426" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O426" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q426" s="3">
+        <v>9</v>
+      </c>
+      <c r="R426" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B427" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E427" s="3">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F427" s="3">
+        <v>400</v>
+      </c>
+      <c r="G427" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H427" s="3">
+        <v>1</v>
+      </c>
+      <c r="I427" s="3">
+        <v>1</v>
+      </c>
+      <c r="J427" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K427" s="3">
+        <v>1</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N427" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O427" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P427" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q427" s="3">
+        <v>9</v>
+      </c>
+      <c r="R427" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B428" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E428" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F428" s="3">
+        <v>400</v>
+      </c>
+      <c r="G428" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H428" s="3">
+        <v>1</v>
+      </c>
+      <c r="I428" s="3">
+        <v>1</v>
+      </c>
+      <c r="J428" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K428" s="3">
+        <v>1</v>
+      </c>
+      <c r="L428" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M428" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N428" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O428" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P428" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q428" s="3">
+        <v>10</v>
+      </c>
+      <c r="R428" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B429" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E429" s="3">
+        <v>1.8125</v>
+      </c>
+      <c r="F429" s="3">
+        <v>400</v>
+      </c>
+      <c r="G429" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H429" s="3">
+        <v>1</v>
+      </c>
+      <c r="I429" s="3">
+        <v>1</v>
+      </c>
+      <c r="J429" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K429" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M429" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N429" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O429" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q429" s="3">
+        <v>10</v>
+      </c>
+      <c r="R429" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B430" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E430" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F430" s="3">
+        <v>400</v>
+      </c>
+      <c r="G430" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H430" s="3">
+        <v>1</v>
+      </c>
+      <c r="I430" s="3">
+        <v>1</v>
+      </c>
+      <c r="J430" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K430" s="3">
+        <v>1</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M430" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N430" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O430" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P430" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q430" s="3">
+        <v>11</v>
+      </c>
+      <c r="R430" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B431" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E431" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="F431" s="3">
+        <v>400</v>
+      </c>
+      <c r="G431" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H431" s="3">
+        <v>1</v>
+      </c>
+      <c r="I431" s="3">
+        <v>1</v>
+      </c>
+      <c r="J431" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K431" s="3">
+        <v>1</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M431" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O431" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q431" s="3">
+        <v>11</v>
+      </c>
+      <c r="R431" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B432" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E432" s="3">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F432" s="3">
+        <v>400</v>
+      </c>
+      <c r="G432" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H432" s="3">
+        <v>1</v>
+      </c>
+      <c r="I432" s="3">
+        <v>1</v>
+      </c>
+      <c r="J432" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K432" s="3">
+        <v>1</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M432" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N432" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O432" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P432" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q432" s="3">
+        <v>12</v>
+      </c>
+      <c r="R432" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B433" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E433" s="3">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F433" s="3">
+        <v>400</v>
+      </c>
+      <c r="G433" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H433" s="3">
+        <v>1</v>
+      </c>
+      <c r="I433" s="3">
+        <v>1</v>
+      </c>
+      <c r="J433" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K433" s="3">
+        <v>1</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M433" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N433" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O433" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P433" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q433" s="3">
+        <v>13</v>
+      </c>
+      <c r="R433" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B434" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E434" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="F434" s="3">
+        <v>400</v>
+      </c>
+      <c r="G434" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" s="3">
+        <v>1</v>
+      </c>
+      <c r="I434" s="3">
+        <v>1</v>
+      </c>
+      <c r="J434" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K434" s="3">
+        <v>1</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M434" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N434" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O434" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q434" s="3">
+        <v>13</v>
+      </c>
+      <c r="R434" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B435" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E435" s="3">
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="F435" s="3">
+        <v>400</v>
+      </c>
+      <c r="G435" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="3">
+        <v>1</v>
+      </c>
+      <c r="I435" s="3">
+        <v>1</v>
+      </c>
+      <c r="J435" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K435" s="3">
+        <v>1</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M435" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N435" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O435" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P435" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q435" s="3">
+        <v>14</v>
+      </c>
+      <c r="R435" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B436" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E436" s="3">
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="F436" s="3">
+        <v>400</v>
+      </c>
+      <c r="G436" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" s="3">
+        <v>1</v>
+      </c>
+      <c r="I436" s="3">
+        <v>1</v>
+      </c>
+      <c r="J436" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K436" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M436" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N436" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O436" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P436" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q436" s="3">
+        <v>14</v>
+      </c>
+      <c r="R436" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B437" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E437" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F437" s="3">
+        <v>400</v>
+      </c>
+      <c r="G437" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H437" s="3">
+        <v>1</v>
+      </c>
+      <c r="I437" s="3">
+        <v>1</v>
+      </c>
+      <c r="J437" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K437" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M437" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N437" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O437" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q437" s="3">
+        <v>15</v>
+      </c>
+      <c r="R437" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B438" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E438" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F438" s="3">
+        <v>400</v>
+      </c>
+      <c r="G438" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H438" s="3">
+        <v>1</v>
+      </c>
+      <c r="I438" s="3">
+        <v>1</v>
+      </c>
+      <c r="J438" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K438" s="3">
+        <v>1</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="M438" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N438" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O438" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P438" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>15</v>
+      </c>
+      <c r="R438" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B439" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E439" s="3">
+        <v>2.125</v>
+      </c>
+      <c r="F439" s="3">
+        <v>400</v>
+      </c>
+      <c r="G439" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H439" s="3">
+        <v>1</v>
+      </c>
+      <c r="I439" s="3">
+        <v>1</v>
+      </c>
+      <c r="J439" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K439" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N439" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O439" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P439" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q439" s="3">
+        <v>15</v>
+      </c>
+      <c r="R439" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B440" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E440" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="F440" s="3">
+        <v>400</v>
+      </c>
+      <c r="G440" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H440" s="3">
+        <v>1</v>
+      </c>
+      <c r="I440" s="3">
+        <v>1</v>
+      </c>
+      <c r="J440" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K440" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="L440" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="M440" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N440" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O440" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q440" s="3">
+        <v>16</v>
+      </c>
+      <c r="R440" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B441" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E441" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="F441" s="3">
+        <v>400</v>
+      </c>
+      <c r="G441" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H441" s="3">
+        <v>1</v>
+      </c>
+      <c r="I441" s="3">
+        <v>1</v>
+      </c>
+      <c r="J441" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K441" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="M441" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N441" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O441" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P441" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q441" s="3">
+        <v>16</v>
+      </c>
+      <c r="R441" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B442" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E442" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="F442" s="3">
+        <v>400</v>
+      </c>
+      <c r="G442" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442" s="3">
+        <v>1</v>
+      </c>
+      <c r="I442" s="3">
+        <v>1</v>
+      </c>
+      <c r="J442" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K442" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L442" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="M442" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N442" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O442" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P442" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q442" s="3">
+        <v>17</v>
+      </c>
+      <c r="R442" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B443" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E443" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F443" s="3">
+        <v>400</v>
+      </c>
+      <c r="G443" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443" s="3">
+        <v>1</v>
+      </c>
+      <c r="I443" s="3">
+        <v>1</v>
+      </c>
+      <c r="J443" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K443" s="3">
+        <v>1</v>
+      </c>
+      <c r="L443" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N443" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O443" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q443" s="3">
+        <v>17</v>
+      </c>
+      <c r="R443" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B444" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E444" s="3">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F444" s="3">
+        <v>400</v>
+      </c>
+      <c r="G444" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444" s="3">
+        <v>1</v>
+      </c>
+      <c r="I444" s="3">
+        <v>1</v>
+      </c>
+      <c r="J444" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K444" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L444" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="M444" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N444" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O444" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P444" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q444" s="3">
+        <v>18</v>
+      </c>
+      <c r="R444" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B445" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E445" s="3">
+        <v>8.3250000000000011</v>
+      </c>
+      <c r="F445" s="3">
+        <v>400</v>
+      </c>
+      <c r="G445" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445" s="3">
+        <v>1</v>
+      </c>
+      <c r="I445" s="3">
+        <v>1</v>
+      </c>
+      <c r="J445" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K445" s="3">
+        <v>1</v>
+      </c>
+      <c r="L445" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M445" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N445" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O445" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q445" s="3">
+        <v>18</v>
+      </c>
+      <c r="R445" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B446" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E446" s="3">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F446" s="3">
+        <v>400</v>
+      </c>
+      <c r="G446" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H446" s="3">
+        <v>1</v>
+      </c>
+      <c r="I446" s="3">
+        <v>1</v>
+      </c>
+      <c r="J446" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K446" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M446" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N446" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O446" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P446" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q446" s="3">
+        <v>18</v>
+      </c>
+      <c r="R446" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B447" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E447" s="3">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F447" s="3">
+        <v>400</v>
+      </c>
+      <c r="G447" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="3">
+        <v>1</v>
+      </c>
+      <c r="I447" s="3">
+        <v>1</v>
+      </c>
+      <c r="J447" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K447" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="L447" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N447" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O447" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P447" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q447" s="3">
+        <v>19</v>
+      </c>
+      <c r="R447" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B448" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E448" s="3">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F448" s="3">
+        <v>400</v>
+      </c>
+      <c r="G448" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="3">
+        <v>1</v>
+      </c>
+      <c r="I448" s="3">
+        <v>1</v>
+      </c>
+      <c r="J448" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K448" s="3">
+        <v>1</v>
+      </c>
+      <c r="L448" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M448" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N448" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O448" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P448" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q448" s="3">
+        <v>19</v>
+      </c>
+      <c r="R448" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B449" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E449" s="3">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F449" s="3">
+        <v>400</v>
+      </c>
+      <c r="G449" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="3">
+        <v>1</v>
+      </c>
+      <c r="I449" s="3">
+        <v>1</v>
+      </c>
+      <c r="J449" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K449" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L449" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M449" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N449" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O449" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P449" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q449" s="3">
+        <v>19</v>
+      </c>
+      <c r="R449" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B450" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E450" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="F450" s="3">
+        <v>400</v>
+      </c>
+      <c r="G450" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="3">
+        <v>1</v>
+      </c>
+      <c r="I450" s="3">
+        <v>1</v>
+      </c>
+      <c r="J450" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K450" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M450" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N450" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O450" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q450" s="3">
+        <v>20</v>
+      </c>
+      <c r="R450" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B451" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E451" s="3">
+        <v>2.4375</v>
+      </c>
+      <c r="F451" s="3">
+        <v>400</v>
+      </c>
+      <c r="G451" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H451" s="3">
+        <v>1</v>
+      </c>
+      <c r="I451" s="3">
+        <v>1</v>
+      </c>
+      <c r="J451" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K451" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M451" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O451" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P451" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q451" s="3">
+        <v>20</v>
+      </c>
+      <c r="R451" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B452" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E452" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="F452" s="3">
+        <v>400</v>
+      </c>
+      <c r="G452" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H452" s="3">
+        <v>1</v>
+      </c>
+      <c r="I452" s="3">
+        <v>1</v>
+      </c>
+      <c r="J452" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K452" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M452" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N452" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O452" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P452" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q452" s="3">
+        <v>20</v>
+      </c>
+      <c r="R452" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
